--- a/assignment_1/assignment_1.xlsx
+++ b/assignment_1/assignment_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="problem1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t>Trial</t>
   </si>
@@ -74,9 +74,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>IB</t>
-  </si>
-  <si>
     <t>Base Heat Flux (W/m^2)</t>
   </si>
   <si>
@@ -131,16 +128,103 @@
     <t>COMPARE FIRST HALF WITH SECOND GRADIENT: Half Center Node</t>
   </si>
   <si>
-    <t>Length of wall</t>
-  </si>
-  <si>
     <t xml:space="preserve">L </t>
   </si>
   <si>
-    <t xml:space="preserve">width </t>
-  </si>
-  <si>
     <t>See problem_4 directory for plots</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>W/m^2K</t>
+  </si>
+  <si>
+    <t>J/kgK</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>W/mK</t>
+  </si>
+  <si>
+    <t>Temperature distribution did not change over any of the iterations</t>
+  </si>
+  <si>
+    <t>TINF</t>
+  </si>
+  <si>
+    <t>HEAT FLUX 1-&gt;2 Node</t>
+  </si>
+  <si>
+    <t>Percent change (2f1)</t>
+  </si>
+  <si>
+    <t>temperature gradient first half center</t>
+  </si>
+  <si>
+    <t>temp grad</t>
+  </si>
+  <si>
+    <t>residuals didn't converge</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W/m^3</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Robin boundary condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only internal gen on internal nodes, therfore set R(I) = 0 </t>
+  </si>
+  <si>
+    <t>Only occurs on outside faces</t>
+  </si>
+  <si>
+    <t>Heat flux</t>
+  </si>
+  <si>
+    <t>% Chg. HF</t>
+  </si>
+  <si>
+    <t>X Pos</t>
+  </si>
+  <si>
+    <t>residuals did not converge</t>
+  </si>
+  <si>
+    <t>residuals did not reach criteriaf for IE = 65, stuck at 1.25E-5, converged to that value</t>
   </si>
 </sst>
 </file>
@@ -191,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -907,6 +991,67 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -914,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,9 +1170,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,9 +1179,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,9 +1189,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1122,15 +1258,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1164,6 +1291,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1481,17 +1653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I66"/>
+  <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -1499,311 +1671,311 @@
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>7800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="55">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="52">
         <v>1</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C14" s="25">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
-        <f>C7-1</f>
+      <c r="D14" s="17">
+        <f>C14-1</f>
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <f>$D$4/D7</f>
+      <c r="E14" s="17">
+        <f>$D$4/D14</f>
         <v>0.5</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F14" s="24">
         <v>100</v>
       </c>
-      <c r="G7" s="49">
-        <v>-5.7220600000000004E-6</v>
-      </c>
-      <c r="H7" s="44">
-        <v>5.0000061999999996</v>
-      </c>
-      <c r="I7" s="60" t="s">
+      <c r="G14" s="46">
+        <v>-1.9073486E-6</v>
+      </c>
+      <c r="H14" s="42">
+        <v>3.7500047699999999</v>
+      </c>
+      <c r="I14" s="57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="56">
+      <c r="J14" s="10">
+        <v>6000.0073199999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C15" s="47">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:D11" si="0">C8-1</f>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:D18" si="0">C15-1</f>
         <v>4</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" ref="E8:E12" si="1">$D$4/D8</f>
+      <c r="E15" s="15">
+        <f t="shared" ref="E15:E19" si="1">$D$4/D15</f>
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
-        <f>F7</f>
+      <c r="F15" s="2">
+        <f>F14</f>
         <v>100</v>
       </c>
-      <c r="G8" s="51">
-        <v>-3.8147000000000001E-6</v>
-      </c>
-      <c r="H8" s="45">
-        <v>6.0000095399999998</v>
-      </c>
-      <c r="I8" s="61">
-        <f>(H8-H7)/H7</f>
-        <v>0.20000041999947923</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="56">
+      <c r="G15" s="48">
+        <v>-1.2715658000000001E-6</v>
+      </c>
+      <c r="H15" s="43">
+        <v>3.7500092999999999</v>
+      </c>
+      <c r="I15" s="58">
+        <f>(H15-H14)/H14</f>
+        <v>1.2079984634266445E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="53">
         <v>3</v>
       </c>
-      <c r="C9" s="50">
-        <f>C8+D8</f>
+      <c r="C16" s="47">
+        <f>C15+D15</f>
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E16" s="15">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:F12" si="2">F8</f>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F19" si="2">F15</f>
         <v>100</v>
       </c>
-      <c r="G9" s="51">
-        <v>-2.1798299999999998E-6</v>
-      </c>
-      <c r="H9" s="45">
-        <v>6.6666689999999997</v>
-      </c>
-      <c r="I9" s="61">
-        <f t="shared" ref="I9:I12" si="3">(H9-H8)/H8</f>
-        <v>0.111109733335524</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="56">
+      <c r="G16" s="48">
+        <v>-3.2697409999999999E-6</v>
+      </c>
+      <c r="H16" s="43">
+        <v>3.7500183599999999</v>
+      </c>
+      <c r="I16" s="58">
+        <f t="shared" ref="I16:I19" si="3">(H16-H15)/H15</f>
+        <v>2.4159940083362396E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="53">
         <v>4</v>
       </c>
-      <c r="C10" s="50">
-        <f>C9+D9</f>
+      <c r="C17" s="47">
+        <f>C16+D16</f>
         <v>17</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E17" s="15">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G10" s="51">
-        <v>-7.1207999999999997E-6</v>
-      </c>
-      <c r="H10" s="45">
-        <v>7.0589360000000001</v>
-      </c>
-      <c r="I10" s="61">
+      <c r="G17" s="48">
+        <v>-6.1035157200000004E-6</v>
+      </c>
+      <c r="H17" s="43">
+        <v>3.7500367200000002</v>
+      </c>
+      <c r="I17" s="58">
         <f t="shared" si="3"/>
-        <v>5.8840029405989765E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="56">
+        <v>4.8959760293888571E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="53">
         <v>5</v>
       </c>
-      <c r="C11" s="50">
-        <f>C10+D10</f>
+      <c r="C18" s="47">
+        <f>C17+D17</f>
         <v>33</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E18" s="15">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G11" s="52">
-        <f>--0.000015751</f>
-        <v>1.5750999999999999E-5</v>
-      </c>
-      <c r="H11" s="59">
-        <v>7.2731700000000004</v>
-      </c>
-      <c r="I11" s="62">
+      <c r="G18" s="49">
+        <v>-9.8443797499999997E-6</v>
+      </c>
+      <c r="H18" s="56">
+        <v>3.7501466300000001</v>
+      </c>
+      <c r="I18" s="59">
         <f t="shared" si="3"/>
-        <v>3.0349333100625965E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57">
+        <v>2.9309046339134336E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="54">
         <v>6</v>
       </c>
-      <c r="C12" s="53">
-        <f>C11+D11</f>
+      <c r="C19" s="50">
+        <f>C18+D18</f>
         <v>65</v>
       </c>
-      <c r="D12" s="18">
-        <f t="shared" ref="D12" si="4">C12-1</f>
+      <c r="D19" s="18">
+        <f t="shared" ref="D19" si="4">C19-1</f>
         <v>64</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E19" s="18">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G12" s="58">
-        <v>3.1001989999999998E-5</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="G19" s="55">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="H19" s="33">
         <v>7.3851760000000004</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I19" s="60">
         <f t="shared" si="3"/>
-        <v>1.5399887531846505E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+        <v>0.9693032642832955</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="81" t="s">
+        <v>65</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1813,7 +1985,9 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="81" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2069,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA73"/>
+  <dimension ref="B2:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A22" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,6 +2254,7 @@
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -2097,727 +2272,600 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>7800</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>430</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="45"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45"/>
+      <c r="G13" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="M13" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="48"/>
-      <c r="G4" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="M4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
+      <c r="J14" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="80"/>
+      <c r="M14" s="45"/>
+      <c r="R14" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="94"/>
+      <c r="W14" s="95"/>
+    </row>
+    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19">
         <v>1</v>
       </c>
-      <c r="P4" t="s">
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="17">
+        <f>C15-1</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" ref="E15:E20" si="0">$O$13/D15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G15" s="76">
+        <v>-24.446653399999999</v>
+      </c>
+      <c r="H15" s="73">
+        <v>-45.164230000000003</v>
+      </c>
+      <c r="I15" s="69">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="J15" s="72">
+        <f>(H15-G15)/G15</f>
+        <v>0.84746064260885723</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="T15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:D20" si="1">C16-1</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G16" s="77">
+        <v>-32.522937800000001</v>
+      </c>
+      <c r="H16" s="15">
+        <v>-41.675651600000002</v>
+      </c>
+      <c r="I16" s="62">
+        <v>-7.6293949999999998E-6</v>
+      </c>
+      <c r="J16" s="72">
+        <f t="shared" ref="J16:J18" si="2">(H16-G16)/G16</f>
+        <v>0.2814233405445925</v>
+      </c>
+      <c r="M16" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="N16" s="16">
+        <v>4</v>
+      </c>
+      <c r="O16" s="17">
+        <f>N16-1</f>
         <v>3</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="P16" s="26">
+        <f>$O$13/O16</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R16" s="28">
+        <v>136.9479</v>
+      </c>
+      <c r="S16" s="61">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="T16" s="34"/>
+      <c r="U16" s="28">
+        <v>-24.446653399999999</v>
+      </c>
+      <c r="V16" s="61">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="W16" s="34"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G17" s="77">
+        <v>-37.215389299999998</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-40.296787299999998</v>
+      </c>
+      <c r="I17" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="J17" s="72">
+        <f t="shared" si="2"/>
+        <v>8.2799026369448733E-2</v>
+      </c>
+      <c r="M17" s="20">
         <v>2</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="N17" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="86"/>
-      <c r="M5" s="48"/>
-      <c r="R5" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="72"/>
-      <c r="W5" s="73"/>
-    </row>
-    <row r="6" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17">
-        <f>C6-1</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="26">
-        <f>$O$4/D6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F6" s="24">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G6" s="82">
-        <v>-24.446653399999999</v>
-      </c>
-      <c r="H6" s="79">
-        <v>-45.164230000000003</v>
-      </c>
-      <c r="I6" s="75">
-        <v>-7.6293900000000003E-6</v>
-      </c>
-      <c r="J6" s="78">
-        <f>(H6-G6)/G6</f>
-        <v>0.84746064260885723</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="14" t="s">
+      <c r="O17" s="15">
+        <f t="shared" ref="O17:O20" si="3">N17-1</f>
         <v>7</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" ref="D7:D11" si="0">C7-1</f>
-        <v>7</v>
-      </c>
-      <c r="E7" s="15">
-        <f>$O$4/D7</f>
+      <c r="P17" s="15">
+        <f t="shared" ref="P17:P20" si="4">$O$13/O17</f>
         <v>0.14285714285714285</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G7" s="83">
-        <v>-32.522937800000001</v>
-      </c>
-      <c r="H7" s="15">
-        <v>-41.675651600000002</v>
-      </c>
-      <c r="I7" s="65">
-        <v>-7.6293949999999998E-6</v>
-      </c>
-      <c r="J7" s="78">
-        <f t="shared" ref="J7:J9" si="1">(H7-G7)/G7</f>
-        <v>0.2814233405445925</v>
-      </c>
-      <c r="M7" s="19">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16">
-        <v>4</v>
-      </c>
-      <c r="O7" s="17">
-        <f>N7-1</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="26">
-        <f>$O$4/O7</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R7" s="28">
-        <v>136.9479</v>
-      </c>
-      <c r="S7" s="64">
-        <v>-7.6293900000000003E-6</v>
-      </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="28">
-        <v>-24.446653399999999</v>
-      </c>
-      <c r="V7" s="64">
-        <v>-7.6293900000000003E-6</v>
-      </c>
-      <c r="W7" s="34"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E8" s="15">
-        <f>$O$4/D8</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G8" s="83">
-        <v>-37.215389299999998</v>
-      </c>
-      <c r="H8" s="15">
-        <v>-40.296787299999998</v>
-      </c>
-      <c r="I8" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="J8" s="78">
-        <f t="shared" si="1"/>
-        <v>8.2799026369448733E-2</v>
-      </c>
-      <c r="M8" s="20">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>8</v>
-      </c>
-      <c r="O8" s="15">
-        <f t="shared" ref="O8:O11" si="2">N8-1</f>
-        <v>7</v>
-      </c>
-      <c r="P8" s="15">
-        <f t="shared" ref="P8:P11" si="3">$O$4/O8</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R8" s="29">
-        <v>136.04730000000001</v>
-      </c>
-      <c r="S8" s="65">
-        <v>-7629390</v>
-      </c>
-      <c r="T8" s="35">
-        <f>(R8-R7)/R7</f>
-        <v>-6.5762235127373048E-3</v>
-      </c>
-      <c r="U8" s="29">
-        <v>-12.4961</v>
-      </c>
-      <c r="V8" s="65">
-        <v>-7.6293949999999998E-6</v>
-      </c>
-      <c r="W8" s="35">
-        <f>(U8-U7)/U7</f>
-        <v>-0.48884210057152438</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="E9" s="15">
-        <f>$O$4/D9</f>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G9" s="83">
-        <v>-39.526885999999998</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-40.431015000000002</v>
-      </c>
-      <c r="I9" s="65">
-        <v>1.7325100000000001E-5</v>
-      </c>
-      <c r="J9" s="78">
-        <f t="shared" si="1"/>
-        <v>2.2873772550663481E-2</v>
-      </c>
-      <c r="M9" s="20">
-        <v>3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>16</v>
-      </c>
-      <c r="O9" s="15">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="P9" s="15">
-        <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R9" s="29">
-        <v>134.70966000000001</v>
-      </c>
-      <c r="S9" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="T9" s="35">
-        <f t="shared" ref="T9:T11" si="4">(R9-R8)/R8</f>
-        <v>-9.8321686648687127E-3</v>
-      </c>
-      <c r="U9" s="29">
-        <v>-7.0437212000000002</v>
-      </c>
-      <c r="V9" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="W9" s="35">
-        <f t="shared" ref="W9:W10" si="5">(U9-U8)/U8</f>
-        <v>-0.43632643784860875</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22">
-        <v>64</v>
-      </c>
-      <c r="D10" s="23">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E10" s="23">
-        <f>$O$4/D10</f>
-        <v>1.5873015873015872E-2</v>
-      </c>
-      <c r="F10" s="85">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G10" s="84">
-        <v>-40.631996200000003</v>
-      </c>
-      <c r="H10" s="23">
-        <v>-40.878498100000002</v>
-      </c>
-      <c r="I10" s="66">
-        <v>8.1523779999999999E-6</v>
-      </c>
-      <c r="J10" s="80">
-        <f>(H10-G10)/G10</f>
-        <v>6.0666943062964345E-3</v>
-      </c>
-      <c r="M10" s="20">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>32</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="P10" s="15">
-        <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R10" s="29">
-        <v>133.68523999999999</v>
-      </c>
-      <c r="S10" s="65">
-        <v>1.7325100000000001E-5</v>
-      </c>
-      <c r="T10" s="35">
-        <f t="shared" si="4"/>
-        <v>-7.6046513665020046E-3</v>
-      </c>
-      <c r="U10" s="29">
-        <v>-3.8842340000000002</v>
-      </c>
-      <c r="V10" s="65">
-        <v>1.7325100000000001E-5</v>
-      </c>
-      <c r="W10" s="35">
-        <f t="shared" si="5"/>
-        <v>-0.44855369914413989</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>100</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E11" s="18">
-        <f>$O$4/D11</f>
-        <v>1.0101010101010102E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G11" s="53">
-        <v>-1.35365</v>
-      </c>
-      <c r="H11" s="18">
-        <v>-1.4231</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="81">
-        <f>(H11-G11)/G11</f>
-        <v>5.1305728955047473E-2</v>
-      </c>
-      <c r="M11" s="67">
-        <v>5</v>
-      </c>
-      <c r="N11" s="3">
-        <v>64</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="3"/>
-        <v>1.5873015873015872E-2</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R11" s="68">
-        <v>133.04077000000001</v>
-      </c>
-      <c r="S11" s="69">
-        <v>8.1523779999999999E-6</v>
-      </c>
-      <c r="T11" s="70">
-        <f t="shared" si="4"/>
-        <v>-4.8208014587099082E-3</v>
-      </c>
-      <c r="U11" s="68">
-        <v>-2.0653000000000001</v>
-      </c>
-      <c r="V11" s="69">
-        <v>8.1523779999999999E-6</v>
-      </c>
-      <c r="W11" s="70">
-        <f>(U11-U10)/U10</f>
-        <v>-0.46828641116884306</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" s="72"/>
-      <c r="T12" s="73"/>
-    </row>
-    <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="M13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="16">
-        <v>4</v>
-      </c>
-      <c r="O14" s="17">
-        <f>N14-1</f>
-        <v>3</v>
-      </c>
-      <c r="P14" s="26">
-        <f>$O$4/O14</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R14" s="28">
-        <v>-102.71196999999999</v>
-      </c>
-      <c r="S14" s="64">
-        <v>-7.6293900000000003E-6</v>
-      </c>
-      <c r="T14" s="34"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="M15" s="20">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>8</v>
-      </c>
-      <c r="O15" s="15">
-        <f t="shared" ref="O15:O18" si="6">N15-1</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" ref="P15:P18" si="7">$O$4/O15</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R15" s="29">
-        <v>-32.522938000000003</v>
-      </c>
-      <c r="S15" s="65">
-        <v>-7.6293949999999998E-6</v>
-      </c>
-      <c r="T15" s="35">
-        <f>(R15-R14)/R14</f>
-        <v>-0.6833578598482728</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="M16" s="20">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1">
-        <v>16</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R16" s="29">
-        <v>-15.700065</v>
-      </c>
-      <c r="S16" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="T16" s="35">
-        <f t="shared" ref="T16:T18" si="8">(R16-R15)/R15</f>
-        <v>-0.51726178612768625</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="M17" s="20">
-        <v>4</v>
-      </c>
-      <c r="N17" s="1">
-        <v>32</v>
-      </c>
-      <c r="O17" s="15">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2258064516129031E-2</v>
       </c>
       <c r="Q17" s="32">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R17" s="29">
-        <v>-8.1601085999999992</v>
-      </c>
-      <c r="S17" s="65">
+        <v>136.04730000000001</v>
+      </c>
+      <c r="S17" s="62">
+        <v>-7629390</v>
+      </c>
+      <c r="T17" s="35">
+        <f>(R17-R16)/R16</f>
+        <v>-6.5762235127373048E-3</v>
+      </c>
+      <c r="U17" s="29">
+        <v>-12.4961</v>
+      </c>
+      <c r="V17" s="62">
+        <v>-7.6293949999999998E-6</v>
+      </c>
+      <c r="W17" s="35">
+        <f>(U17-U16)/U16</f>
+        <v>-0.48884210057152438</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G18" s="77">
+        <v>-39.526885999999998</v>
+      </c>
+      <c r="H18" s="15">
+        <v>-40.431015000000002</v>
+      </c>
+      <c r="I18" s="62">
         <v>1.7325100000000001E-5</v>
       </c>
-      <c r="T17" s="35">
-        <f t="shared" si="8"/>
-        <v>-0.48025001170377329</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M18" s="67">
+      <c r="J18" s="72">
+        <f t="shared" si="2"/>
+        <v>2.2873772550663481E-2</v>
+      </c>
+      <c r="M18" s="20">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>16</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R18" s="29">
+        <v>134.70966000000001</v>
+      </c>
+      <c r="S18" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="T18" s="35">
+        <f t="shared" ref="T18:T20" si="5">(R18-R17)/R17</f>
+        <v>-9.8321686648687127E-3</v>
+      </c>
+      <c r="U18" s="29">
+        <v>-7.0437212000000002</v>
+      </c>
+      <c r="V18" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="W18" s="35">
+        <f t="shared" ref="W18:W19" si="6">(U18-U17)/U17</f>
+        <v>-0.43632643784860875</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" s="21">
         <v>5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="C19" s="22">
         <v>64</v>
       </c>
-      <c r="O18" s="18">
+      <c r="D19" s="23">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="F19" s="79">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G19" s="78">
+        <v>-40.631996200000003</v>
+      </c>
+      <c r="H19" s="23">
+        <v>-40.878498100000002</v>
+      </c>
+      <c r="I19" s="63">
+        <v>8.1523779999999999E-6</v>
+      </c>
+      <c r="J19" s="74">
+        <f>(H19-G19)/G19</f>
+        <v>6.0666943062964345E-3</v>
+      </c>
+      <c r="M19" s="20">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>32</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P19" s="15">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R19" s="29">
+        <v>133.68523999999999</v>
+      </c>
+      <c r="S19" s="62">
+        <v>1.7325100000000001E-5</v>
+      </c>
+      <c r="T19" s="35">
+        <f t="shared" si="5"/>
+        <v>-7.6046513665020046E-3</v>
+      </c>
+      <c r="U19" s="29">
+        <v>-3.8842340000000002</v>
+      </c>
+      <c r="V19" s="62">
+        <v>1.7325100000000001E-5</v>
+      </c>
+      <c r="W19" s="35">
         <f t="shared" si="6"/>
+        <v>-0.44855369914413989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="64">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G20" s="50">
+        <v>-1.35365</v>
+      </c>
+      <c r="H20" s="18">
+        <v>-1.4231</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="75">
+        <f>(H20-G20)/G20</f>
+        <v>5.1305728955047473E-2</v>
+      </c>
+      <c r="M20" s="64">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
+        <v>64</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="P18" s="18">
-        <f t="shared" si="7"/>
+      <c r="P20" s="18">
+        <f t="shared" si="4"/>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q20" s="33">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R18" s="68">
-        <v>-4.22478</v>
-      </c>
-      <c r="S18" s="69">
+      <c r="R20" s="65">
+        <v>133.04077000000001</v>
+      </c>
+      <c r="S20" s="66">
         <v>8.1523779999999999E-6</v>
       </c>
-      <c r="T18" s="70">
-        <f>(R18-R17)/R17</f>
-        <v>-0.48226424339499596</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="67">
+        <f t="shared" si="5"/>
+        <v>-4.8208014587099082E-3</v>
+      </c>
+      <c r="U20" s="65">
+        <v>-2.0653000000000001</v>
+      </c>
+      <c r="V20" s="66">
+        <v>8.1523779999999999E-6</v>
+      </c>
+      <c r="W20" s="67">
+        <f>(U20-U19)/U19</f>
+        <v>-0.46828641116884306</v>
+      </c>
     </row>
     <row r="21" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="73"/>
+      <c r="R21" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="94"/>
+      <c r="T21" s="95"/>
     </row>
     <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="M22" s="11" t="s">
         <v>0</v>
       </c>
@@ -2833,26 +2881,24 @@
       <c r="Q22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="8" t="s">
+      <c r="R22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="S22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="45"/>
+      <c r="G23" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="6"/>
       <c r="M23" s="19">
         <v>1</v>
       </c>
@@ -2864,35 +2910,45 @@
         <v>3</v>
       </c>
       <c r="P23" s="26">
-        <f>$O$4/O23</f>
+        <f>$O$13/O23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="31">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R23" s="82">
-        <v>-24.446653399999999</v>
-      </c>
-      <c r="S23" s="79">
-        <v>-45.164230000000003</v>
-      </c>
-      <c r="T23" s="75">
+      <c r="R23" s="28">
+        <v>-102.71196999999999</v>
+      </c>
+      <c r="S23" s="61">
         <v>-7.6293900000000003E-6</v>
       </c>
-      <c r="U23" s="78">
-        <f>(S23-R23)/R23</f>
-        <v>0.84746064260885723</v>
-      </c>
-      <c r="V23">
-        <f>R23-S23</f>
-        <v>20.717576600000005</v>
-      </c>
-      <c r="W23">
-        <f>(V23-V24)/V23</f>
-        <v>0.66695477307900974</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="T23" s="34"/>
+    </row>
+    <row r="24" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>49</v>
+      </c>
       <c r="M24" s="20">
         <v>2</v>
       </c>
@@ -2900,39 +2956,55 @@
         <v>8</v>
       </c>
       <c r="O24" s="15">
-        <f t="shared" ref="O24:O28" si="9">N24-1</f>
+        <f t="shared" ref="O24:O27" si="7">N24-1</f>
         <v>7</v>
       </c>
       <c r="P24" s="15">
-        <f t="shared" ref="P24:P28" si="10">$O$4/O24</f>
+        <f t="shared" ref="P24:P27" si="8">$O$13/O24</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="32">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R24" s="83">
-        <v>-12.49606</v>
-      </c>
-      <c r="S24" s="15">
-        <v>-19.395949999999999</v>
-      </c>
-      <c r="T24" s="65">
+      <c r="R24" s="29">
+        <v>-32.522938000000003</v>
+      </c>
+      <c r="S24" s="62">
         <v>-7.6293949999999998E-6</v>
       </c>
-      <c r="U24" s="78">
-        <f t="shared" ref="U24:U26" si="11">(S24-R24)/R24</f>
-        <v>0.552165242484431</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ref="V24:V28" si="12">R24-S24</f>
-        <v>6.8998899999999992</v>
-      </c>
-      <c r="W24">
-        <f>(V24-V25)/V24</f>
-        <v>0.67798388090244921</v>
+      <c r="T24" s="35">
+        <f>(R24-R23)/R23</f>
+        <v>-0.6833578598482728</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>4</v>
+      </c>
+      <c r="D25" s="17">
+        <f>C25-1</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" ref="E25:E30" si="9">$O$13/D25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G25" s="82">
+        <v>11.427592300000001</v>
+      </c>
+      <c r="H25" s="69">
+        <v>-1.4444091799999999E-5</v>
+      </c>
+      <c r="I25" s="72"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
       <c r="M25" s="20">
         <v>3</v>
       </c>
@@ -2940,39 +3012,55 @@
         <v>16</v>
       </c>
       <c r="O25" s="15">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="P25" s="15">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R25" s="29">
+        <v>-15.700065</v>
+      </c>
+      <c r="S25" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="T25" s="35">
+        <f t="shared" ref="T25:T26" si="10">(R25-R24)/R24</f>
+        <v>-0.51726178612768625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26:D30" si="11">C26-1</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="15">
         <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="P25" s="15">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="Q25" s="2">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F26" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R25" s="83">
-        <v>-7.0437212000000002</v>
-      </c>
-      <c r="S25" s="15">
-        <v>-9.2655969999999996</v>
-      </c>
-      <c r="T25" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="U25" s="78">
-        <f t="shared" si="11"/>
-        <v>0.31544062249368976</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="12"/>
-        <v>2.2218757999999994</v>
-      </c>
-      <c r="W25">
-        <f t="shared" ref="W25:W27" si="13">(V25-V26)/V25</f>
-        <v>0.70622300310395381</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="G26" s="29">
+        <v>14.632705700000001</v>
+      </c>
+      <c r="H26" s="62">
+        <v>8.9095998000000003E-6</v>
+      </c>
+      <c r="I26" s="72">
+        <f>(G26-G25)/G25</f>
+        <v>0.28047145154102143</v>
+      </c>
       <c r="M26" s="20">
         <v>4</v>
       </c>
@@ -2980,456 +3068,986 @@
         <v>32</v>
       </c>
       <c r="O26" s="15">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="P26" s="15">
+        <f t="shared" si="8"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R26" s="29">
+        <v>-8.1601085999999992</v>
+      </c>
+      <c r="S26" s="62">
+        <v>1.7325100000000001E-5</v>
+      </c>
+      <c r="T26" s="35">
+        <f t="shared" si="10"/>
+        <v>-0.48025001170377329</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="15">
         <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G27" s="29">
+        <v>15.521875400000001</v>
+      </c>
+      <c r="H27" s="62">
+        <v>1.4441354299999999E-5</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" ref="I27:I30" si="12">(G27-G26)/G26</f>
+        <v>6.0765911529266935E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="64">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
+        <v>64</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="P27" s="18">
+        <f t="shared" si="8"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R27" s="65">
+        <v>-4.22478</v>
+      </c>
+      <c r="S27" s="66">
+        <v>8.1523779999999999E-6</v>
+      </c>
+      <c r="T27" s="67">
+        <f>(R27-R26)/R26</f>
+        <v>-0.48226424339499596</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>32</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="P26" s="15">
-        <f t="shared" si="10"/>
+      <c r="E28" s="15">
+        <f t="shared" si="9"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="F28" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R26" s="83">
-        <v>-3.8842340000000002</v>
-      </c>
-      <c r="S26" s="15">
-        <v>-4.5369700000000002</v>
-      </c>
-      <c r="T26" s="65">
-        <v>1.7325100000000001E-5</v>
-      </c>
-      <c r="U26" s="78">
+      <c r="G28" s="29">
+        <v>15.732824300000001</v>
+      </c>
+      <c r="H28" s="62">
+        <v>3.62714127E-5</v>
+      </c>
+      <c r="I28" s="72">
+        <f t="shared" si="12"/>
+        <v>1.3590426064108206E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="21">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22">
+        <v>64</v>
+      </c>
+      <c r="D29" s="23">
         <f t="shared" si="11"/>
-        <v>0.1680475481137336</v>
-      </c>
-      <c r="V26">
+        <v>63</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="9"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="F29" s="79">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G29" s="83">
+        <v>15.7822464</v>
+      </c>
+      <c r="H29" s="63">
+        <v>4.70530613E-5</v>
+      </c>
+      <c r="I29" s="72">
         <f t="shared" si="12"/>
-        <v>0.65273599999999998</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="13"/>
-        <v>0.7289654776203548</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="M27" s="21">
-        <v>5</v>
-      </c>
-      <c r="N27" s="22">
-        <v>64</v>
-      </c>
-      <c r="O27" s="23">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
-      <c r="P27" s="23">
-        <f t="shared" si="10"/>
-        <v>1.5873015873015872E-2</v>
-      </c>
-      <c r="Q27" s="85">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R27" s="84">
-        <v>-2.06527591</v>
-      </c>
-      <c r="S27" s="23">
-        <v>-2.2421899000000001</v>
-      </c>
-      <c r="T27" s="66">
-        <v>8.1523779999999999E-6</v>
-      </c>
-      <c r="U27" s="80">
-        <f>(S27-R27)/R27</f>
-        <v>8.5661188969177529E-2</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="12"/>
-        <v>0.17691399000000008</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="13"/>
-        <v>0.60743635932918605</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M28" s="67">
-        <v>6</v>
-      </c>
-      <c r="N28" s="3">
-        <v>100</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" si="9"/>
-        <v>99</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="10"/>
-        <v>1.0101010101010102E-2</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="R28" s="53">
-        <v>-1.35365</v>
-      </c>
-      <c r="S28" s="18">
-        <v>-1.4231</v>
-      </c>
-      <c r="T28" s="18"/>
-      <c r="U28" s="81">
-        <f>(S28-R28)/R28</f>
-        <v>5.1305728955047473E-2</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="12"/>
-        <v>6.9450000000000012E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="M29" s="6"/>
+        <v>3.1413368037167518E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
     </row>
     <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="64">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>100</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="11"/>
+        <v>99</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="9"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-1.35365</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="84">
+        <f t="shared" si="12"/>
+        <v>-1.0857704261923069</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="95"/>
     </row>
     <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="71" t="s">
+      <c r="B31" s="45"/>
+      <c r="G31" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+      <c r="M31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="73"/>
+      <c r="W31" s="80" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M32" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S32" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M33" s="19">
+      <c r="G32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="19">
         <v>1</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N32" s="16">
         <v>4</v>
       </c>
-      <c r="O33" s="17">
-        <f>N33-1</f>
+      <c r="O32" s="17">
+        <f>N32-1</f>
         <v>3</v>
       </c>
-      <c r="P33" s="26">
-        <f>$O$4/O33</f>
+      <c r="P32" s="26">
+        <f>$O$13/O32</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q32" s="24">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R33" s="82">
-        <v>-102.711967</v>
-      </c>
-      <c r="S33" s="79">
-        <v>-102.711967</v>
-      </c>
-      <c r="T33" s="75">
+      <c r="R32" s="76">
+        <v>-24.446653399999999</v>
+      </c>
+      <c r="S32" s="73">
+        <v>-45.164230000000003</v>
+      </c>
+      <c r="T32" s="69">
         <v>-7.6293900000000003E-6</v>
       </c>
-      <c r="U33" s="78">
-        <f>(S33-R33)/R33</f>
+      <c r="U32" s="72">
+        <f>(S32-R32)/R32</f>
+        <v>0.84746064260885723</v>
+      </c>
+      <c r="V32">
+        <f>R32-S32</f>
+        <v>20.717576600000005</v>
+      </c>
+      <c r="W32">
+        <f>(V32-V33)/V32</f>
+        <v>0.66695477307900974</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17">
+        <f>C33-1</f>
+        <v>3</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" ref="E33:E38" si="13">$O$13/D33</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G33" s="82">
+        <v>-46.485721599999998</v>
+      </c>
+      <c r="H33" s="69">
+        <f>H25</f>
+        <v>-1.4444091799999999E-5</v>
+      </c>
+      <c r="I33" s="72"/>
+      <c r="J33" t="str">
+        <f>J25</f>
+        <v>residuals didn't converge</v>
+      </c>
+      <c r="M33" s="20">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>8</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" ref="O33:O37" si="14">N33-1</f>
+        <v>7</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" ref="P33:P37" si="15">$O$13/O33</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R33" s="77">
+        <v>-12.49606</v>
+      </c>
+      <c r="S33" s="15">
+        <v>-19.395949999999999</v>
+      </c>
+      <c r="T33" s="62">
+        <v>-7.6293949999999998E-6</v>
+      </c>
+      <c r="U33" s="72">
+        <f t="shared" ref="U33:U35" si="16">(S33-R33)/R33</f>
+        <v>0.552165242484431</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V37" si="17">R33-S33</f>
+        <v>6.8998899999999992</v>
+      </c>
+      <c r="W33">
+        <f>(V33-V34)/V33</f>
+        <v>0.67798388090244921</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="20">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" ref="D34:D38" si="18">C34-1</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="13"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G34" s="29">
+        <v>-46.777298000000002</v>
+      </c>
+      <c r="H34" s="62">
+        <f>H26</f>
+        <v>8.9095998000000003E-6</v>
+      </c>
+      <c r="I34" s="72">
+        <f>(G34-G33)/G33</f>
+        <v>6.2723862288071664E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J38" si="19">J26</f>
         <v>0</v>
       </c>
-      <c r="V33">
-        <f>R33-S33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M34" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" ref="O34:O38" si="14">N34-1</f>
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" ref="P34:P38" si="15">$O$4/O34</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="15"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q34" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R34" s="83">
-        <v>-32.522938000000003</v>
+      <c r="R34" s="77">
+        <v>-7.0437212000000002</v>
       </c>
       <c r="S34" s="15">
-        <v>-41.675651999999999</v>
-      </c>
-      <c r="T34" s="65">
-        <v>-7.6293949999999998E-6</v>
-      </c>
-      <c r="U34" s="78">
-        <f>(S34-R34)/R34</f>
-        <v>0.28142334496348376</v>
+        <v>-9.2655969999999996</v>
+      </c>
+      <c r="T34" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="U34" s="72">
+        <f t="shared" si="16"/>
+        <v>0.31544062249368976</v>
       </c>
       <c r="V34">
-        <f t="shared" ref="V34:V38" si="16">R34-S34</f>
-        <v>9.152713999999996</v>
+        <f t="shared" si="17"/>
+        <v>2.2218757999999994</v>
       </c>
       <c r="W34">
-        <f>(V34-V35)/V34</f>
-        <v>0.73996511854298064</v>
-      </c>
-    </row>
-    <row r="35" spans="13:23" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W34:W36" si="20">(V34-V35)/V34</f>
+        <v>0.70622300310395381</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G35" s="29">
+        <v>-44.7333298</v>
+      </c>
+      <c r="H35" s="62">
+        <f t="shared" ref="H35:H37" si="21">H27</f>
+        <v>1.4441354299999999E-5</v>
+      </c>
+      <c r="I35" s="72">
+        <f t="shared" ref="I35:I38" si="22">(G35-G34)/G34</f>
+        <v>-4.3695730351932721E-2</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="19"/>
+        <v>residuals didn't converge</v>
+      </c>
       <c r="M35" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P35" s="15">
         <f t="shared" si="15"/>
-        <v>6.6666666666666666E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="Q35" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R35" s="83">
-        <v>-15.7000647</v>
+      <c r="R35" s="77">
+        <v>-3.8842340000000002</v>
       </c>
       <c r="S35" s="15">
-        <v>-18.080089600000001</v>
-      </c>
-      <c r="T35" s="65">
-        <v>3.8146969999999998E-6</v>
-      </c>
-      <c r="U35" s="78">
-        <f>(S35-R35)/R35</f>
-        <v>0.15159331795619926</v>
+        <v>-4.5369700000000002</v>
+      </c>
+      <c r="T35" s="62">
+        <v>1.7325100000000001E-5</v>
+      </c>
+      <c r="U35" s="72">
+        <f t="shared" si="16"/>
+        <v>0.1680475481137336</v>
       </c>
       <c r="V35">
-        <f t="shared" si="16"/>
-        <v>2.3800249000000004</v>
+        <f t="shared" si="17"/>
+        <v>0.65273599999999998</v>
       </c>
       <c r="W35">
-        <f t="shared" ref="W35:W37" si="17">(V35-V36)/V35</f>
-        <v>0.72117908094154792</v>
-      </c>
-    </row>
-    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M36" s="20">
+        <f t="shared" si="20"/>
+        <v>0.7289654776203548</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="20">
         <v>4</v>
       </c>
-      <c r="N36" s="1">
+      <c r="C36" s="1">
         <v>32</v>
       </c>
-      <c r="O36" s="15">
-        <f t="shared" si="14"/>
+      <c r="D36" s="15">
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
-      <c r="P36" s="15">
-        <f t="shared" si="15"/>
+      <c r="E36" s="15">
+        <f t="shared" si="13"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="F36" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R36" s="83">
-        <v>-8.1601085700000002</v>
-      </c>
-      <c r="S36" s="15">
-        <v>-8.8237093000000009</v>
-      </c>
-      <c r="T36" s="65">
-        <v>1.7325100000000001E-5</v>
-      </c>
-      <c r="U36" s="78">
-        <f>(S36-R36)/R36</f>
-        <v>8.1322536864236919E-2</v>
-      </c>
-      <c r="V36">
-        <f t="shared" si="16"/>
-        <v>0.66360073000000064</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="17"/>
-        <v>0.73050538989009295</v>
-      </c>
-    </row>
-    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M37" s="21">
+      <c r="G36" s="29">
+        <v>-43.280693100000001</v>
+      </c>
+      <c r="H36" s="62">
+        <f t="shared" si="21"/>
+        <v>3.62714127E-5</v>
+      </c>
+      <c r="I36" s="72">
+        <f t="shared" si="22"/>
+        <v>-3.2473252192373112E-2</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="19"/>
+        <v>residuals didn't converge</v>
+      </c>
+      <c r="M36" s="21">
         <v>5</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N36" s="22">
         <v>64</v>
       </c>
-      <c r="O37" s="23">
+      <c r="O36" s="23">
         <f t="shared" si="14"/>
         <v>63</v>
       </c>
-      <c r="P37" s="23">
+      <c r="P36" s="23">
         <f t="shared" si="15"/>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="Q37" s="85">
+      <c r="Q36" s="79">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R37" s="84">
-        <v>-4.2247776999999997</v>
-      </c>
-      <c r="S37" s="23">
-        <v>-4.4036145199999996</v>
-      </c>
-      <c r="T37" s="66">
+      <c r="R36" s="78">
+        <v>-2.06527591</v>
+      </c>
+      <c r="S36" s="23">
+        <v>-2.2421899000000001</v>
+      </c>
+      <c r="T36" s="63">
         <v>8.1523779999999999E-6</v>
       </c>
-      <c r="U37" s="80">
-        <f>(S37-R37)/R37</f>
-        <v>4.2330468654007504E-2</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="16"/>
-        <v>0.1788368199999999</v>
-      </c>
-      <c r="W37">
+      <c r="U36" s="74">
+        <f>(S36-R36)/R36</f>
+        <v>8.5661188969177529E-2</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="17"/>
-        <v>0.61165715203390414</v>
-      </c>
-    </row>
-    <row r="38" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M38" s="67">
+        <v>0.17691399000000008</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>0.60743635932918605</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="21">
+        <v>5</v>
+      </c>
+      <c r="C37" s="22">
+        <v>64</v>
+      </c>
+      <c r="D37" s="23">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="E37" s="23">
+        <f t="shared" si="13"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="F37" s="79">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G37" s="83">
+        <v>-42.495723699999999</v>
+      </c>
+      <c r="H37" s="62">
+        <f t="shared" si="21"/>
+        <v>4.70530613E-5</v>
+      </c>
+      <c r="I37" s="72">
+        <f t="shared" si="22"/>
+        <v>-1.8136710477032573E-2</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="19"/>
+        <v>residuals didn't converge</v>
+      </c>
+      <c r="M37" s="64">
         <v>6</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N37" s="3">
         <v>100</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O37" s="18">
         <f t="shared" si="14"/>
         <v>99</v>
       </c>
-      <c r="P38" s="18">
+      <c r="P37" s="18">
         <f t="shared" si="15"/>
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q37" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R38" s="53">
+      <c r="R37" s="50">
         <v>-1.35365</v>
       </c>
-      <c r="S38" s="18">
+      <c r="S37" s="18">
         <v>-1.4231</v>
       </c>
-      <c r="T38" s="18"/>
-      <c r="U38" s="81">
-        <f>(S38-R38)/R38</f>
+      <c r="T37" s="18"/>
+      <c r="U37" s="75">
+        <f>(S37-R37)/R37</f>
         <v>5.1305728955047473E-2</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="16"/>
+      <c r="V37">
+        <f t="shared" si="17"/>
         <v>6.9450000000000012E-2</v>
       </c>
     </row>
-    <row r="39" spans="13:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="64">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3">
+        <v>100</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="13"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-1.35365</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="84">
+        <f t="shared" si="22"/>
+        <v>-0.96814620667349638</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="95"/>
+    </row>
+    <row r="41" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="V41" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M42" s="19">
+        <v>1</v>
+      </c>
+      <c r="N42" s="16">
+        <v>4</v>
+      </c>
+      <c r="O42" s="17">
+        <f>N42-1</f>
+        <v>3</v>
+      </c>
+      <c r="P42" s="26">
+        <f>$O$13/O42</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q42" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R42" s="76">
+        <v>-102.711967</v>
+      </c>
+      <c r="S42" s="73">
+        <v>-102.711967</v>
+      </c>
+      <c r="T42" s="69">
+        <v>-7.6293900000000003E-6</v>
+      </c>
+      <c r="U42" s="72">
+        <f t="shared" ref="U42:U47" si="23">(S42-R42)/R42</f>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f>R42-S42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M43" s="20">
+        <v>2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>8</v>
+      </c>
+      <c r="O43" s="15">
+        <f t="shared" ref="O43:O47" si="24">N43-1</f>
+        <v>7</v>
+      </c>
+      <c r="P43" s="15">
+        <f t="shared" ref="P43:P47" si="25">$O$13/O43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R43" s="77">
+        <v>-32.522938000000003</v>
+      </c>
+      <c r="S43" s="15">
+        <v>-41.675651999999999</v>
+      </c>
+      <c r="T43" s="62">
+        <v>-7.6293949999999998E-6</v>
+      </c>
+      <c r="U43" s="72">
+        <f t="shared" si="23"/>
+        <v>0.28142334496348376</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ref="V43:V47" si="26">R43-S43</f>
+        <v>9.152713999999996</v>
+      </c>
+      <c r="W43">
+        <f>(V43-V44)/V43</f>
+        <v>0.73996511854298064</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M44" s="20">
+        <v>3</v>
+      </c>
+      <c r="N44" s="1">
+        <v>16</v>
+      </c>
+      <c r="O44" s="15">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="P44" s="15">
+        <f t="shared" si="25"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R44" s="77">
+        <v>-15.7000647</v>
+      </c>
+      <c r="S44" s="15">
+        <v>-18.080089600000001</v>
+      </c>
+      <c r="T44" s="62">
+        <v>3.8146969999999998E-6</v>
+      </c>
+      <c r="U44" s="72">
+        <f t="shared" si="23"/>
+        <v>0.15159331795619926</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="26"/>
+        <v>2.3800249000000004</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W46" si="27">(V44-V45)/V44</f>
+        <v>0.72117908094154792</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M45" s="20">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1">
+        <v>32</v>
+      </c>
+      <c r="O45" s="15">
+        <f t="shared" si="24"/>
+        <v>31</v>
+      </c>
+      <c r="P45" s="15">
+        <f t="shared" si="25"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R45" s="77">
+        <v>-8.1601085700000002</v>
+      </c>
+      <c r="S45" s="15">
+        <v>-8.8237093000000009</v>
+      </c>
+      <c r="T45" s="62">
+        <v>1.7325100000000001E-5</v>
+      </c>
+      <c r="U45" s="72">
+        <f t="shared" si="23"/>
+        <v>8.1322536864236919E-2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="26"/>
+        <v>0.66360073000000064</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="27"/>
+        <v>0.73050538989009295</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="M46" s="21">
+        <v>5</v>
+      </c>
+      <c r="N46" s="22">
+        <v>64</v>
+      </c>
+      <c r="O46" s="23">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="P46" s="23">
+        <f t="shared" si="25"/>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="Q46" s="79">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R46" s="78">
+        <v>-4.2247776999999997</v>
+      </c>
+      <c r="S46" s="23">
+        <v>-4.4036145199999996</v>
+      </c>
+      <c r="T46" s="63">
+        <v>8.1523779999999999E-6</v>
+      </c>
+      <c r="U46" s="74">
+        <f t="shared" si="23"/>
+        <v>4.2330468654007504E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="26"/>
+        <v>0.1788368199999999</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="27"/>
+        <v>0.61165715203390414</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="64">
+        <v>6</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="18">
+        <f t="shared" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="P47" s="18">
+        <f t="shared" si="25"/>
+        <v>1.0101010101010102E-2</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R47" s="50">
+        <v>-1.35365</v>
+      </c>
+      <c r="S47" s="18">
+        <v>-1.4231</v>
+      </c>
+      <c r="T47" s="18"/>
+      <c r="U47" s="75">
+        <f t="shared" si="23"/>
+        <v>5.1305728955047473E-2</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="26"/>
+        <v>6.9450000000000012E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
@@ -3559,14 +4177,61 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R31:U31"/>
+  <mergeCells count="8">
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R30:U30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3575,289 +4240,442 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="37"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="17">
+        <f>C13-1</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" ref="E13:E18" si="0">$C$4/D13</f>
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" ref="F13:F18" si="1">$C$5</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="G13" s="85">
+        <v>330.35739000000001</v>
+      </c>
+      <c r="H13" s="10">
+        <v>-0.15898999999999999</v>
+      </c>
+      <c r="I13" s="91">
+        <v>3.8146972699999997E-6</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10">
+        <f>K13-1</f>
         <v>1</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="M13" s="87"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:D18" si="2">C14-1</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="85">
+        <v>329.92003999999997</v>
+      </c>
+      <c r="H14" s="10">
+        <v>-0.159002438</v>
+      </c>
+      <c r="I14" s="91">
+        <v>7.6343612799999994E-6</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K14" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="L14" s="10">
+        <f>K14-1</f>
         <v>2</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="M14" s="88">
+        <f t="shared" ref="M14:N18" si="3">(G14-G13)/G13</f>
+        <v>-1.3238692798730419E-3</v>
+      </c>
+      <c r="N14" s="38">
+        <f t="shared" si="3"/>
+        <v>7.8231335304129206E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C14+D14</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="85">
+        <v>329.83816999999999</v>
+      </c>
+      <c r="H15" s="10">
+        <v>-0.15899609000000001</v>
+      </c>
+      <c r="I15" s="91">
+        <v>4.3681689000000002E-6</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <v>4</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" ref="L15:L18" si="4">K15-1</f>
         <v>3</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
-        <f>C8-1</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
-        <f>$E$4/D8</f>
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="24">
-        <f>$E$5</f>
+      <c r="M15" s="88">
+        <f t="shared" si="3"/>
+        <v>-2.4815103683904983E-4</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="3"/>
+        <v>-3.9923916135105817E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15+D15</f>
+        <v>17</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="42">
-        <v>330.35700000000003</v>
-      </c>
-      <c r="H8" s="42">
-        <v>2</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="G16" s="85">
+        <v>329.80624</v>
+      </c>
+      <c r="H16" s="10">
+        <v>-0.15904687300000001</v>
+      </c>
+      <c r="I16" s="91">
+        <v>9.15788132E-6</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3.4380000000000001E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="88">
+        <f t="shared" si="3"/>
+        <v>-9.680504836656251E-5</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="3"/>
+        <v>3.1939779148027278E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="15">
-        <f t="shared" ref="D9:D13" si="0">C9-1</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" ref="E9:E13" si="1">$E$4/D9</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:F13" si="2">$E$5</f>
+      <c r="C17" s="1">
+        <f>C16+D16</f>
+        <v>33</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="10">
-        <v>329.92</v>
-      </c>
-      <c r="H9" s="10">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>2</v>
-      </c>
-      <c r="J9" s="39">
-        <f>(G9-G8)/G8</f>
-        <v>-1.3228113828373904E-3</v>
-      </c>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C9+D9</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="G17" s="85">
+        <v>329.81473</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-0.15919</v>
+      </c>
+      <c r="I17" s="91">
+        <v>2.4694589199999999E-5</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3.2870000000000003E-2</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="M17" s="88">
+        <f t="shared" si="3"/>
+        <v>2.5742387409027735E-5</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="shared" si="3"/>
+        <v>8.9990452059999257E-4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="64">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18" si="5">C17+D17</f>
+        <v>65</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E10" s="15">
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="10">
-        <v>329.83</v>
-      </c>
-      <c r="H10" s="10">
-        <v>4</v>
-      </c>
-      <c r="I10" s="10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="39">
-        <f t="shared" ref="J10:J13" si="3">(G10-G9)/G9</f>
-        <v>-2.7279340446178418E-4</v>
-      </c>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="20">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f>C10+D10</f>
-        <v>17</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E11" s="15">
-        <f>$E$4/D11</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="10">
-        <v>329.803</v>
-      </c>
-      <c r="H11" s="10">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10">
-        <v>6</v>
-      </c>
-      <c r="J11" s="39">
+      <c r="G18" s="86">
+        <v>329.76670000000001</v>
+      </c>
+      <c r="H18" s="39">
+        <v>-0.15818277</v>
+      </c>
+      <c r="I18" s="92">
+        <v>4.1400053300000003E-5</v>
+      </c>
+      <c r="J18" s="39">
+        <v>3.1980000000000001E-2</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="M18" s="89">
         <f t="shared" si="3"/>
-        <v>-8.1860352302661415E-5</v>
-      </c>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="21">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <f>C11+D11</f>
-        <v>33</v>
-      </c>
-      <c r="D12" s="15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E12" s="15">
-        <f t="shared" si="1"/>
-        <v>3.1250000000000002E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>329.83199999999999</v>
-      </c>
-      <c r="H12" s="10">
-        <v>12</v>
-      </c>
-      <c r="I12" s="10">
-        <v>11</v>
-      </c>
-      <c r="J12" s="39">
+        <v>-1.4562721319324616E-4</v>
+      </c>
+      <c r="N18" s="40">
         <f t="shared" si="3"/>
-        <v>8.7931280188465117E-5</v>
-      </c>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13" si="4">C12+D12</f>
-        <v>65</v>
-      </c>
-      <c r="D13" s="18">
-        <f t="shared" si="0"/>
+        <v>-6.3272190464225006E-3</v>
+      </c>
+      <c r="O18" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="40">
-        <v>329.78399999999999</v>
-      </c>
-      <c r="H13" s="40">
-        <v>22</v>
-      </c>
-      <c r="I13" s="40">
-        <v>21</v>
-      </c>
-      <c r="J13" s="41">
-        <f t="shared" si="3"/>
-        <v>-1.4552863275850075E-4</v>
-      </c>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K16" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,7 +4687,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3883,29 +4701,29 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -3917,21 +4735,21 @@
       <c r="E6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="55">
+      <c r="B7" s="52">
         <v>1</v>
       </c>
       <c r="C7" s="25">
@@ -3948,21 +4766,21 @@
       <c r="F7" s="24">
         <v>100</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="46">
         <v>-5.7220600000000004E-6</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="42">
         <v>5.0000061999999996</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="57" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="56">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="47">
         <v>5</v>
       </c>
       <c r="D8" s="15">
@@ -3977,22 +4795,22 @@
         <f>F7</f>
         <v>100</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="48">
         <v>-3.8147000000000001E-6</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="43">
         <v>6.0000095399999998</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="58">
         <f>(H8-H7)/H7</f>
         <v>0.20000041999947923</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="56">
+      <c r="B9" s="53">
         <v>3</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="47">
         <f>C8+D8</f>
         <v>9</v>
       </c>
@@ -4008,22 +4826,22 @@
         <f t="shared" ref="F9:F12" si="2">F8</f>
         <v>100</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="48">
         <v>-2.1798299999999998E-6</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="43">
         <v>6.6666689999999997</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="58">
         <f t="shared" ref="I9:I12" si="3">(H9-H8)/H8</f>
         <v>0.111109733335524</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="56">
+      <c r="B10" s="53">
         <v>4</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="47">
         <f>C9+D9</f>
         <v>17</v>
       </c>
@@ -4039,22 +4857,22 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="48">
         <v>-7.1207999999999997E-6</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="43">
         <v>7.0589360000000001</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="58">
         <f t="shared" si="3"/>
         <v>5.8840029405989765E-2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="56">
+      <c r="B11" s="53">
         <v>5</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="47">
         <f>C10+D10</f>
         <v>33</v>
       </c>
@@ -4070,23 +4888,23 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="49">
         <f>--0.000015751</f>
         <v>1.5750999999999999E-5</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="56">
         <v>7.2731700000000004</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="59">
         <f t="shared" si="3"/>
         <v>3.0349333100625965E-2</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57">
+      <c r="B12" s="54">
         <v>6</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="50">
         <f>C11+D11</f>
         <v>65</v>
       </c>
@@ -4102,13 +4920,13 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="55">
         <v>3.1001989999999998E-5</v>
       </c>
       <c r="H12" s="33">
         <v>7.3851760000000004</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="60">
         <f t="shared" si="3"/>
         <v>1.5399887531846505E-2</v>
       </c>

--- a/assignment_1/assignment_1.xlsx
+++ b/assignment_1/assignment_1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="problem1" sheetId="5" r:id="rId1"/>
     <sheet name="problem2" sheetId="1" r:id="rId2"/>
     <sheet name="problem3" sheetId="6" r:id="rId3"/>
-    <sheet name="problem4" sheetId="7" r:id="rId4"/>
+    <sheet name="problem4_273_inf" sheetId="7" r:id="rId4"/>
+    <sheet name="problem4_0_inf" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,8 +27,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alex</author>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+converged to 81.4 from 127.957</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alex</author>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+converged to 81.4 from 127.957</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="135">
   <si>
     <t>Trial</t>
   </si>
@@ -185,9 +254,6 @@
     <t>temp grad</t>
   </si>
   <si>
-    <t>residuals didn't converge</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -221,21 +287,232 @@
     <t>X Pos</t>
   </si>
   <si>
-    <t>residuals did not converge</t>
-  </si>
-  <si>
     <t>residuals did not reach criteriaf for IE = 65, stuck at 1.25E-5, converged to that value</t>
+  </si>
+  <si>
+    <t>Y,Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1 </t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>EMIS</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cp </t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Linearization 1</t>
+  </si>
+  <si>
+    <t>Linearization 2</t>
+  </si>
+  <si>
+    <t>Linearization 3 - Newton Raphson</t>
+  </si>
+  <si>
+    <t>residuals did not reach crit</t>
+  </si>
+  <si>
+    <t>resid converged, not crit</t>
+  </si>
+  <si>
+    <t>resid did not converge or crit</t>
+  </si>
+  <si>
+    <t>resid converged to 3.91 and 3.05, not crit</t>
+  </si>
+  <si>
+    <t>did not converge, reached crit</t>
+  </si>
+  <si>
+    <t>converged to 1.28 and 1.22 after 50 it., not crit</t>
+  </si>
+  <si>
+    <t>converged to 1.56 and 1.316 after 50 it., not crit</t>
+  </si>
+  <si>
+    <t>converged to 3.488 and 4.1992 after 50 it., not crit</t>
+  </si>
+  <si>
+    <t>converged after 28 it., not crit</t>
+  </si>
+  <si>
+    <t>reached crit after 6 iterations</t>
+  </si>
+  <si>
+    <t>reached crit after 7 iterations</t>
+  </si>
+  <si>
+    <t>did not converge, or reach crit. Between 1.39 and 2.34 every 4 iterations after 16</t>
+  </si>
+  <si>
+    <t>converged after 10 it., not to crit</t>
+  </si>
+  <si>
+    <t>did not converge, or reach crit. Between 4.43 and 5.5411 every 5 iterations after 21</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Residual went to infinity after 2 iterations, no solution</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>residuals did not converge, 9.119e10 to 31.6636 after 4. No solution</t>
+  </si>
+  <si>
+    <t>residuals did not converge, 5.68e9 to 4.566 after 5. No solution</t>
+  </si>
+  <si>
+    <t>residuals did not converge, 1.616e10 to 10.5879 after 5. No solution</t>
+  </si>
+  <si>
+    <t>residuals did not converge, 2.518e9 to 2.157 after 5. No solution</t>
+  </si>
+  <si>
+    <t>residuals did not converge, 5.914e8 to 0.5515 after 5. No solution</t>
+  </si>
+  <si>
+    <t>residuals reached crit after 6 iterations, did not converge</t>
+  </si>
+  <si>
+    <t>residuals didn't reach crit, but converged</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Surface 1</t>
+  </si>
+  <si>
+    <t>Surface 2</t>
+  </si>
+  <si>
+    <t>T(x) [C]</t>
+  </si>
+  <si>
+    <t>T(x) [K]</t>
+  </si>
+  <si>
+    <t>Analytic Solution</t>
+  </si>
+  <si>
+    <t>x [m]</t>
+  </si>
+  <si>
+    <t>Ts(x) [C]</t>
+  </si>
+  <si>
+    <t>Ts(x) [K]</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINF </t>
+  </si>
+  <si>
+    <t>resid not converged, reached crit at 96 it</t>
+  </si>
+  <si>
+    <t>resid not converged, reached crit at 26 it</t>
+  </si>
+  <si>
+    <t>resid not converged, reached crit at 21 it</t>
+  </si>
+  <si>
+    <t>resid not converged, reached crit at 20 it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residuals btw 1.341 and 1.686 since 20, not crit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">residuals btw 2.69 and 2.709 since 20, not crit </t>
+  </si>
+  <si>
+    <t>resid not conv., reached crit at 26</t>
+  </si>
+  <si>
+    <t>resid not conv., reached crit at 17</t>
+  </si>
+  <si>
+    <t>reached crit at 15, did not conv</t>
+  </si>
+  <si>
+    <t>did not conv, reached crit at 15</t>
+  </si>
+  <si>
+    <t>converged to 1.419 after 16</t>
+  </si>
+  <si>
+    <t>converged after 12, not crit</t>
+  </si>
+  <si>
+    <t>didn't reach crit, converged after 7</t>
+  </si>
+  <si>
+    <t>bounced btw 3.05 and 5.72 after 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residuals did not converge, btw 23.25 and 9.96e-2 after 2, no soln </t>
+  </si>
+  <si>
+    <t>residuals did not converge, btw 9.175 and 6.61e-2 aftern 2, no soln</t>
+  </si>
+  <si>
+    <t>residuals did not converge, btw 4.081 and 5.566e-2 aftern 2, no soln</t>
+  </si>
+  <si>
+    <t>residuals did not converge, btw 1.875 and 4.8688e-2 aftern 2, no soln</t>
+  </si>
+  <si>
+    <t>residuals did not converge, btw 0.754 and 3.6995e-2 aftern 2, no soln</t>
+  </si>
+  <si>
+    <t>residuals did not converge, btw 0.2496 and 1.8193e-2 aftern 2, no soln</t>
+  </si>
+  <si>
+    <t>residuals reached crit after 12 iterations, did not converge</t>
+  </si>
+  <si>
+    <t>residuals reached crit after 11 iterations, did not converge</t>
+  </si>
+  <si>
+    <t>residuals reached crit after 10 iterations, did not converge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +543,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +565,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1054,12 +1344,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,6 +1683,60 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1336,6 +1744,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1354,6 +1809,2214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>problem2!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ts(x) [C]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>problem2!$B$46:$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4516129032258063E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6774193548387094E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19354838709677419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22580645161290322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25806451612903225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29032258064516125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35483870967741937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38709677419354838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41935483870967738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45161290322580644</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5161290322580645</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54838709677419351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58064516129032251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61290322580645162</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64516129032258063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67741935483870963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70967741935483875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74193548387096775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77419354838709675</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80645161290322576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83870967741935476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87096774193548387</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90322580645161288</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93548387096774188</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>problem2!$C$46:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.954030027031223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.789109072715775</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.623612450615759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.776780070864731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.723127491867075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.057255427498404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.466701082882665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.711013234712439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.605649762036585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.009619281930959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.816039278621162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.944978425530433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.338103766909224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.954774293026389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.769319304575259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.769319304575259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.954774293026389</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.338103766909224</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.944978425530433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.816039278621162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.009619281930956</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.605649762036585</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.711013234712439</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.466701082882665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.057255427498404</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45.723127491867047</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.776780070864731</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.623612450615759</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69.78910907271576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82.954030027031223</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3DB-4743-B940-CDA1A62E3B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="466715384"/>
+        <c:axId val="466714072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="466715384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466714072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466714072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466715384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>problem3!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(x) [C]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>problem3!$C$22:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>problem3!$D$22:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>56.521101000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.718576550000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.867975200000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.96929695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.022541800000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.02770975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.984800800000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.893814949999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.754752200000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.56761255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.332396000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.049102550000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.7177322</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.338284950000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.910760800000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.435159750000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.911481800000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.339726949999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.719895200000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.051986550000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.336001000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D43D-459B-B4E8-2640829AF90A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="227643936"/>
+        <c:axId val="227643280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="227643936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>x position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227643280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="227643280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Temperature (x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227643936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1262530</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>141940</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD11FE37-9F1F-4590-AED0-6746823DC719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A2540-2E54-4E7B-8939-641D3A6370A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1655,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1974,7 +4637,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
@@ -2243,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W82"/>
+  <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A10" zoomScale="102" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,7 +4918,7 @@
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
@@ -2267,112 +4930,136 @@
     <col min="23" max="23" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="M2" s="27" t="s">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="125">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="126" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="123"/>
+      <c r="D4" s="123">
         <v>7800</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="128" t="s">
         <v>44</v>
       </c>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="123"/>
+      <c r="D5" s="123">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="128" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="27"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="123"/>
+      <c r="D6" s="123">
         <v>430</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="128" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="123"/>
+      <c r="D7" s="123">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="123"/>
+      <c r="D8" s="123">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="123"/>
+      <c r="D9" s="123">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="123"/>
+      <c r="D10" s="123">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="27"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+    <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129">
+        <f>0.0125</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E11" s="130" t="s">
+        <v>19</v>
+      </c>
       <c r="M11" s="27"/>
     </row>
     <row r="12" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,12 +5068,12 @@
     </row>
     <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="45"/>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
       <c r="M13" s="45" t="s">
         <v>17</v>
       </c>
@@ -2430,16 +5117,16 @@
       </c>
       <c r="K14" s="80"/>
       <c r="M14" s="45"/>
-      <c r="R14" s="93" t="s">
+      <c r="R14" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="94"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="93" t="s">
+      <c r="S14" s="112"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="94"/>
-      <c r="W14" s="95"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="113"/>
     </row>
     <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19">
@@ -2854,11 +5541,11 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="93" t="s">
+      <c r="R21" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="94"/>
-      <c r="T21" s="95"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
     </row>
     <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
@@ -2893,11 +5580,11 @@
     </row>
     <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="45"/>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="6"/>
       <c r="M23" s="19">
         <v>1</v>
@@ -3003,7 +5690,7 @@
       </c>
       <c r="I25" s="72"/>
       <c r="J25" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="M25" s="20">
         <v>3</v>
@@ -3118,7 +5805,7 @@
         <v>6.0765911529266935E-2</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="M27" s="64">
         <v>5</v>
@@ -3177,7 +5864,7 @@
         <v>1.3590426064108206E-2</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -3216,7 +5903,7 @@
         <v>3.1413368037167518E-3</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -3257,20 +5944,20 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="93" t="s">
+      <c r="R30" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="95"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="113"/>
     </row>
     <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="45"/>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="113"/>
       <c r="M31" s="11" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +6056,7 @@
         <v>0.66695477307900974</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>1</v>
       </c>
@@ -3397,7 +6084,7 @@
       <c r="I33" s="72"/>
       <c r="J33" t="str">
         <f>J25</f>
-        <v>residuals didn't converge</v>
+        <v>residuals didn't reach crit, but converged</v>
       </c>
       <c r="M33" s="20">
         <v>2</v>
@@ -3438,7 +6125,7 @@
         <v>0.67798388090244921</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
         <v>2</v>
       </c>
@@ -3510,7 +6197,7 @@
         <v>0.70622300310395381</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
         <v>3</v>
       </c>
@@ -3541,7 +6228,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="19"/>
-        <v>residuals didn't converge</v>
+        <v>residuals didn't reach crit, but converged</v>
       </c>
       <c r="M35" s="20">
         <v>4</v>
@@ -3582,7 +6269,7 @@
         <v>0.7289654776203548</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B36" s="20">
         <v>4</v>
       </c>
@@ -3613,7 +6300,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="19"/>
-        <v>residuals didn't converge</v>
+        <v>residuals didn't reach crit, but converged</v>
       </c>
       <c r="M36" s="21">
         <v>5</v>
@@ -3654,7 +6341,7 @@
         <v>0.60743635932918605</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="21">
         <v>5</v>
       </c>
@@ -3685,7 +6372,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="19"/>
-        <v>residuals didn't converge</v>
+        <v>residuals didn't reach crit, but converged</v>
       </c>
       <c r="M37" s="64">
         <v>6</v>
@@ -3720,7 +6407,7 @@
         <v>6.9450000000000012E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="64">
         <v>6</v>
       </c>
@@ -3759,7 +6446,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
     </row>
-    <row r="39" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -3769,20 +6456,36 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="126">
+        <f>2*D11+2*D11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D40" s="136"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="93" t="s">
+      <c r="R40" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="94"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="95"/>
-    </row>
-    <row r="41" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="113"/>
+    </row>
+    <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="128">
+        <f>D11*D11</f>
+        <v>1.5625000000000003E-4</v>
+      </c>
+      <c r="D41" s="133"/>
       <c r="M41" s="11" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +6520,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="135">
+        <f>SQRT(D7*C40/D5/C41)</f>
+        <v>8</v>
+      </c>
+      <c r="D42" s="133"/>
       <c r="M42" s="19">
         <v>1</v>
       </c>
@@ -3853,7 +6564,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="131"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="133"/>
       <c r="M43" s="20">
         <v>2</v>
       </c>
@@ -3893,7 +6607,12 @@
         <v>0.73996511854298064</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
       <c r="M44" s="20">
         <v>3</v>
       </c>
@@ -3933,7 +6652,16 @@
         <v>0.72117908094154792</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="M45" s="20">
         <v>4</v>
       </c>
@@ -3973,7 +6701,18 @@
         <v>0.73050538989009295</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17">
+        <f>$D$10+($D$8-$D$10)*COSH($C$42*($D$3/2-B46))/COSH($C$42*$D$3/2)</f>
+        <v>100</v>
+      </c>
+      <c r="D46" s="24">
+        <f>C46+273.15</f>
+        <v>373.15</v>
+      </c>
       <c r="M46" s="21">
         <v>5</v>
       </c>
@@ -4013,7 +6752,22 @@
         <v>0.61165715203390414</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <f>A47*$E$18</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" ref="C47:C110" si="28">$D$10+($D$8-$D$10)*COSH($C$42*($D$3/2-B47))/COSH($C$42*$D$3/2)</f>
+        <v>82.954030027031223</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:D110" si="29">C47+273.15</f>
+        <v>356.10403002703117</v>
+      </c>
       <c r="M47" s="64">
         <v>6</v>
       </c>
@@ -4047,183 +6801,1730 @@
         <v>6.9450000000000012E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" ref="B48:B78" si="30">A48*$E$18</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" si="28"/>
+        <v>69.789109072715775</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="29"/>
+        <v>342.93910907271572</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="30"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="C49" s="15">
+        <f t="shared" si="28"/>
+        <v>59.623612450615759</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="29"/>
+        <v>332.77361245061576</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="30"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="C50" s="15">
+        <f t="shared" si="28"/>
+        <v>51.776780070864731</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="29"/>
+        <v>324.92678007086471</v>
+      </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="30"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="C51" s="15">
+        <f t="shared" si="28"/>
+        <v>45.723127491867075</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="29"/>
+        <v>318.87312749186708</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="30"/>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" si="28"/>
+        <v>41.057255427498404</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="29"/>
+        <v>314.20725542749835</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="30"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="C53" s="15">
+        <f t="shared" si="28"/>
+        <v>37.466701082882665</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="29"/>
+        <v>310.61670108288263</v>
+      </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="30"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="C54" s="15">
+        <f t="shared" si="28"/>
+        <v>34.711013234712439</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="29"/>
+        <v>307.8610132347124</v>
+      </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="30"/>
+        <v>0.29032258064516125</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" si="28"/>
+        <v>32.605649762036585</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="29"/>
+        <v>305.75564976203657</v>
+      </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="30"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="C56" s="15">
+        <f t="shared" si="28"/>
+        <v>31.009619281930959</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="29"/>
+        <v>304.15961928193093</v>
+      </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="30"/>
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="C57" s="15">
+        <f t="shared" si="28"/>
+        <v>29.816039278621162</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="29"/>
+        <v>302.96603927862111</v>
+      </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="30"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="C58" s="15">
+        <f t="shared" si="28"/>
+        <v>28.944978425530433</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="29"/>
+        <v>302.09497842553043</v>
+      </c>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="30"/>
+        <v>0.41935483870967738</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="28"/>
+        <v>28.338103766909224</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="29"/>
+        <v>301.48810376690921</v>
+      </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="30"/>
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="28"/>
+        <v>27.954774293026389</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="29"/>
+        <v>301.10477429302637</v>
+      </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="30"/>
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="28"/>
+        <v>27.769319304575259</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="29"/>
+        <v>300.91931930457525</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="30"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" si="28"/>
+        <v>27.769319304575259</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="29"/>
+        <v>300.91931930457525</v>
+      </c>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="30"/>
+        <v>0.54838709677419351</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" si="28"/>
+        <v>27.954774293026389</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="29"/>
+        <v>301.10477429302637</v>
+      </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>18</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="30"/>
+        <v>0.58064516129032251</v>
+      </c>
+      <c r="C64" s="15">
+        <f t="shared" si="28"/>
+        <v>28.338103766909224</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="29"/>
+        <v>301.48810376690921</v>
+      </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="30"/>
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="C65" s="15">
+        <f t="shared" si="28"/>
+        <v>28.944978425530433</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="29"/>
+        <v>302.09497842553043</v>
+      </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="30"/>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C66" s="15">
+        <f t="shared" si="28"/>
+        <v>29.816039278621162</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="29"/>
+        <v>302.96603927862111</v>
+      </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="30"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="C67" s="15">
+        <f t="shared" si="28"/>
+        <v>31.009619281930956</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="29"/>
+        <v>304.15961928193093</v>
+      </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="30"/>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" si="28"/>
+        <v>32.605649762036585</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="29"/>
+        <v>305.75564976203657</v>
+      </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="30"/>
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="28"/>
+        <v>34.711013234712439</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="29"/>
+        <v>307.8610132347124</v>
+      </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="30"/>
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="28"/>
+        <v>37.466701082882665</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="29"/>
+        <v>310.61670108288263</v>
+      </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="30"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="28"/>
+        <v>41.057255427498404</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="29"/>
+        <v>314.20725542749835</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="30"/>
+        <v>0.83870967741935476</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="28"/>
+        <v>45.723127491867047</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="29"/>
+        <v>318.87312749186702</v>
+      </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>27</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="30"/>
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="C73" s="15">
+        <f t="shared" si="28"/>
+        <v>51.776780070864731</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="29"/>
+        <v>324.92678007086471</v>
+      </c>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>28</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="30"/>
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" si="28"/>
+        <v>59.623612450615759</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="29"/>
+        <v>332.77361245061576</v>
+      </c>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>29</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="30"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="28"/>
+        <v>69.78910907271576</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="29"/>
+        <v>342.93910907271572</v>
+      </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="30"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="28"/>
+        <v>82.954030027031223</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="29"/>
+        <v>356.10403002703117</v>
+      </c>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>31</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="29"/>
+        <v>373.15</v>
+      </c>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>32</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="30"/>
+        <v>1.032258064516129</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="28"/>
+        <v>122.06854866617155</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="29"/>
+        <v>395.2185486661715</v>
+      </c>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>33</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="28"/>
+        <v>30.702750115257764</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="29"/>
+        <v>303.85275011525772</v>
+      </c>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>34</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="28"/>
+        <v>30.320753977321004</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="29"/>
+        <v>303.47075397732101</v>
+      </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="28"/>
+        <v>29.972828830220912</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="29"/>
+        <v>303.1228288302209</v>
+      </c>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="13:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>36</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="28"/>
+        <v>29.656746765178152</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="29"/>
+        <v>302.8067467651781</v>
+      </c>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>37</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="28"/>
+        <v>29.370483777852819</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="29"/>
+        <v>302.5204837778528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>38</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="28"/>
+        <v>29.112206807806558</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="29"/>
+        <v>302.26220680780654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>39</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="28"/>
+        <v>28.880262000657591</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="29"/>
+        <v>302.03026200065756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>40</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="28"/>
+        <v>28.673164117766305</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="29"/>
+        <v>301.82316411776628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>41</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="28"/>
+        <v>28.489587025637267</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="29"/>
+        <v>301.63958702563724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="28"/>
+        <v>28.328355204137353</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="29"/>
+        <v>301.4783552041373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>43</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="28"/>
+        <v>28.188436219153591</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="29"/>
+        <v>301.33843621915355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="28"/>
+        <v>28.068934111490055</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="29"/>
+        <v>301.21893411149006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>45</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="28"/>
+        <v>27.96908365967014</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="29"/>
+        <v>301.11908365967014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>46</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C92" s="15">
+        <f t="shared" si="28"/>
+        <v>27.888245479906608</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="29"/>
+        <v>301.03824547990661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" si="28"/>
+        <v>27.825901931862443</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="29"/>
+        <v>300.97590193186244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>48</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" si="28"/>
+        <v>27.781653803985456</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="29"/>
+        <v>300.93165380398545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>49</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="28"/>
+        <v>27.755217757191396</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="29"/>
+        <v>300.90521775719139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>50</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="28"/>
+        <v>27.746424510526492</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="29"/>
+        <v>300.89642451052646</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>51</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="28"/>
+        <v>27.755217757191396</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="29"/>
+        <v>300.90521775719139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>52</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="28"/>
+        <v>27.781653803985456</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="29"/>
+        <v>300.93165380398545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>53</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="28"/>
+        <v>27.825901931862443</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="29"/>
+        <v>300.97590193186244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>54</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="28"/>
+        <v>27.888245479906608</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="29"/>
+        <v>301.03824547990661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>55</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="28"/>
+        <v>27.96908365967014</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="29"/>
+        <v>301.11908365967014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>56</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" si="28"/>
+        <v>28.068934111490055</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="29"/>
+        <v>301.21893411149006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>57</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="28"/>
+        <v>28.188436219153591</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="29"/>
+        <v>301.33843621915355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>58</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C104" s="15">
+        <f t="shared" si="28"/>
+        <v>28.328355204137353</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="29"/>
+        <v>301.4783552041373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>59</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C105" s="15">
+        <f t="shared" si="28"/>
+        <v>28.489587025637267</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="29"/>
+        <v>301.63958702563724</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>60</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C106" s="15">
+        <f t="shared" si="28"/>
+        <v>28.673164117766305</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="29"/>
+        <v>301.82316411776628</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>61</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="C107" s="15">
+        <f t="shared" si="28"/>
+        <v>28.880262000657591</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="29"/>
+        <v>302.03026200065756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>62</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="C108" s="15">
+        <f t="shared" si="28"/>
+        <v>29.112206807806558</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="29"/>
+        <v>302.26220680780654</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>63</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C109" s="15">
+        <f t="shared" si="28"/>
+        <v>29.370483777852819</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="29"/>
+        <v>302.5204837778528</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>64</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="C110" s="15">
+        <f t="shared" si="28"/>
+        <v>29.656746765178152</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="29"/>
+        <v>302.8067467651781</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>65</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C111" s="15">
+        <f t="shared" ref="C111:C146" si="31">$D$10+($D$8-$D$10)*COSH($C$42*($D$3/2-B111))/COSH($C$42*$D$3/2)</f>
+        <v>29.972828830220912</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" ref="D111:D146" si="32">C111+273.15</f>
+        <v>303.1228288302209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>66</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C112" s="15">
+        <f t="shared" si="31"/>
+        <v>30.320753977321008</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="32"/>
+        <v>303.47075397732101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>67</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="C113" s="15">
+        <f t="shared" si="31"/>
+        <v>30.702750115257764</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="32"/>
+        <v>303.85275011525772</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>68</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C114" s="15">
+        <f t="shared" si="31"/>
+        <v>31.121263323472323</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="32"/>
+        <v>304.27126332347228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>69</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="C115" s="15">
+        <f t="shared" si="31"/>
+        <v>31.578973515327121</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="32"/>
+        <v>304.72897351532708</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>70</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C116" s="15">
+        <f t="shared" si="31"/>
+        <v>32.078811598700831</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="32"/>
+        <v>305.22881159870082</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>71</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C117" s="15">
+        <f t="shared" si="31"/>
+        <v>32.623978243805034</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="32"/>
+        <v>305.773978243805</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>72</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="C118" s="15">
+        <f t="shared" si="31"/>
+        <v>33.217964378400907</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="32"/>
+        <v>306.36796437840087</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>73</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C119" s="15">
+        <f t="shared" si="31"/>
+        <v>33.864573541655112</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="32"/>
+        <v>307.01457354165507</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>74</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C120" s="15">
+        <f t="shared" si="31"/>
+        <v>34.567946239775992</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="32"/>
+        <v>307.71794623977598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>75</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C121" s="15">
+        <f t="shared" si="31"/>
+        <v>35.332586459389233</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="32"/>
+        <v>308.48258645938921</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>76</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C122" s="15">
+        <f t="shared" si="31"/>
+        <v>36.163390508429167</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="32"/>
+        <v>309.31339050842917</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>77</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="C123" s="15">
+        <f t="shared" si="31"/>
+        <v>37.065678369225836</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="32"/>
+        <v>310.21567836922583</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>78</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="C124" s="15">
+        <f t="shared" si="31"/>
+        <v>38.045227764554696</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="32"/>
+        <v>311.19522776455466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>79</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="C125" s="15">
+        <f t="shared" si="31"/>
+        <v>39.108311154787799</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="32"/>
+        <v>312.25831115478775</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>80</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C126" s="15">
+        <f t="shared" si="31"/>
+        <v>40.261735903054813</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="32"/>
+        <v>313.41173590305482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>81</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C127" s="15">
+        <f t="shared" si="31"/>
+        <v>41.512887865607794</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="32"/>
+        <v>314.66288786560779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>82</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C128" s="15">
+        <f t="shared" si="31"/>
+        <v>42.869778686516923</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="32"/>
+        <v>316.01977868651693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>83</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="C129" s="15">
+        <f t="shared" si="31"/>
+        <v>44.341097099544882</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="32"/>
+        <v>317.49109709954485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>84</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C130" s="15">
+        <f t="shared" si="31"/>
+        <v>45.936264565706736</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="32"/>
+        <v>319.0862645657067</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>85</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="C131" s="15">
+        <f t="shared" si="31"/>
+        <v>47.665495602785896</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="32"/>
+        <v>320.81549560278586</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>86</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C132" s="15">
+        <f t="shared" si="31"/>
+        <v>49.539863193120929</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="32"/>
+        <v>322.68986319312091</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>87</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C133" s="15">
+        <f t="shared" si="31"/>
+        <v>51.571369688496404</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" si="32"/>
+        <v>324.7213696884964</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>88</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C134" s="15">
+        <f t="shared" si="31"/>
+        <v>53.773023666171014</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="32"/>
+        <v>326.92302366617099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>89</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C135" s="15">
+        <f t="shared" si="31"/>
+        <v>56.158923228184179</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" si="32"/>
+        <v>329.30892322818414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>90</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C136" s="15">
+        <f t="shared" si="31"/>
+        <v>58.744346277340824</v>
+      </c>
+      <c r="D136" s="2">
+        <f t="shared" si="32"/>
+        <v>331.89434627734079</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>91</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="C137" s="15">
+        <f t="shared" si="31"/>
+        <v>61.545848347949118</v>
+      </c>
+      <c r="D137" s="2">
+        <f t="shared" si="32"/>
+        <v>334.6958483479491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>92</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C138" s="15">
+        <f t="shared" si="31"/>
+        <v>64.581368617761541</v>
+      </c>
+      <c r="D138" s="2">
+        <f t="shared" si="32"/>
+        <v>337.73136861776152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>93</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="C139" s="15">
+        <f t="shared" si="31"/>
+        <v>67.870344779958103</v>
+      </c>
+      <c r="D139" s="2">
+        <f t="shared" si="32"/>
+        <v>341.02034477995807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>94</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="C140" s="15">
+        <f t="shared" si="31"/>
+        <v>71.433837510744013</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="32"/>
+        <v>344.58383751074399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>95</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C141" s="15">
+        <f t="shared" si="31"/>
+        <v>75.294665329580027</v>
+      </c>
+      <c r="D141" s="2">
+        <f t="shared" si="32"/>
+        <v>348.44466532958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>96</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C142" s="15">
+        <f t="shared" si="31"/>
+        <v>79.477550715610676</v>
+      </c>
+      <c r="D142" s="2">
+        <f t="shared" si="32"/>
+        <v>352.62755071561065</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>97</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C143" s="15">
+        <f t="shared" si="31"/>
+        <v>84.009278415934887</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="32"/>
+        <v>357.15927841593486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>98</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C144" s="15">
+        <f t="shared" si="31"/>
+        <v>88.918866959432208</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="32"/>
+        <v>362.06886695943217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>99</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="C145" s="15">
+        <f t="shared" si="31"/>
+        <v>94.23775447441875</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="32"/>
+        <v>367.38775447441873</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>100</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="18">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="D146" s="4">
+        <f t="shared" si="32"/>
+        <v>373.15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="R40:U40"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G31:I31"/>
@@ -4235,15 +8536,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O18"/>
+  <dimension ref="B2:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4272,7 +8574,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>5.0000000000000001E-3</v>
@@ -4296,7 +8598,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>280</v>
@@ -4305,22 +8607,22 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>50000</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="37"/>
     </row>
@@ -4335,7 +8637,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="37"/>
     </row>
@@ -4374,13 +8676,13 @@
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>12</v>
@@ -4392,7 +8694,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -4625,7 +8927,7 @@
         <v>8.9990452059999257E-4</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4674,264 +8976,3234 @@
         <v>-6.3272190464225006E-3</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="124">
+        <f>-0.05</f>
+        <v>-0.05</v>
+      </c>
+      <c r="D22" s="125">
+        <f t="shared" ref="D22:D31" si="6">-961.538*C22^2-51.851*C22+56.332396</f>
+        <v>56.521101000000002</v>
+      </c>
+      <c r="E22" s="126">
+        <f>D22+273.15</f>
+        <v>329.67110099999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="127">
+        <f>-0.045</f>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="D23" s="123">
+        <f t="shared" si="6"/>
+        <v>56.718576550000002</v>
+      </c>
+      <c r="E23" s="128">
+        <f t="shared" ref="E23:E42" si="7">D23+273.15</f>
+        <v>329.86857655</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="127">
+        <v>-0.04</v>
+      </c>
+      <c r="D24" s="123">
+        <f t="shared" si="6"/>
+        <v>56.867975200000004</v>
+      </c>
+      <c r="E24" s="128">
+        <f t="shared" si="7"/>
+        <v>330.01797519999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="127">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="D25" s="123">
+        <f t="shared" si="6"/>
+        <v>56.96929695</v>
+      </c>
+      <c r="E25" s="128">
+        <f t="shared" si="7"/>
+        <v>330.11929694999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="127">
+        <v>-0.03</v>
+      </c>
+      <c r="D26" s="123">
+        <f t="shared" si="6"/>
+        <v>57.022541800000006</v>
+      </c>
+      <c r="E26" s="128">
+        <f t="shared" si="7"/>
+        <v>330.17254179999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="127">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="D27" s="123">
+        <f t="shared" si="6"/>
+        <v>57.02770975</v>
+      </c>
+      <c r="E27" s="128">
+        <f t="shared" si="7"/>
+        <v>330.17770974999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="127">
+        <v>-0.02</v>
+      </c>
+      <c r="D28" s="123">
+        <f t="shared" si="6"/>
+        <v>56.984800800000002</v>
+      </c>
+      <c r="E28" s="128">
+        <f t="shared" si="7"/>
+        <v>330.13480079999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="127">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D29" s="123">
+        <f t="shared" si="6"/>
+        <v>56.893814949999999</v>
+      </c>
+      <c r="E29" s="128">
+        <f t="shared" si="7"/>
+        <v>330.04381494999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C30" s="127">
+        <v>-0.01</v>
+      </c>
+      <c r="D30" s="123">
+        <f t="shared" si="6"/>
+        <v>56.754752200000006</v>
+      </c>
+      <c r="E30" s="128">
+        <f t="shared" si="7"/>
+        <v>329.90475219999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="127">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D31" s="123">
+        <f t="shared" si="6"/>
+        <v>56.56761255</v>
+      </c>
+      <c r="E31" s="128">
+        <f t="shared" si="7"/>
+        <v>329.71761254999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="123">
+        <f>-961.538*C32^2-51.851*C32+56.332396</f>
+        <v>56.332396000000003</v>
+      </c>
+      <c r="E32" s="128">
+        <f t="shared" si="7"/>
+        <v>329.48239599999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="123">
+        <f>-961.538*C33^2-51.851*C33+56.332396</f>
+        <v>56.049102550000001</v>
+      </c>
+      <c r="E33" s="128">
+        <f t="shared" si="7"/>
+        <v>329.19910254999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="123">
+        <f>-961.538*C34^2-51.851*C34+56.332396</f>
+        <v>55.7177322</v>
+      </c>
+      <c r="E34" s="128">
+        <f t="shared" si="7"/>
+        <v>328.86773219999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D35" s="123">
+        <f>-961.538*C35^2-51.851*C35+56.332396</f>
+        <v>55.338284950000002</v>
+      </c>
+      <c r="E35" s="128">
+        <f t="shared" si="7"/>
+        <v>328.48828494999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="123">
+        <f>-961.538*C36^2-51.851*C36+56.332396</f>
+        <v>54.910760800000006</v>
+      </c>
+      <c r="E36" s="128">
+        <f t="shared" si="7"/>
+        <v>328.06076079999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D37" s="123">
+        <f>-961.538*C37^2-51.851*C37+56.332396</f>
+        <v>54.435159750000004</v>
+      </c>
+      <c r="E37" s="128">
+        <f t="shared" si="7"/>
+        <v>327.58515975</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="123">
+        <f>-961.538*C38^2-51.851*C38+56.332396</f>
+        <v>53.911481800000004</v>
+      </c>
+      <c r="E38" s="128">
+        <f t="shared" si="7"/>
+        <v>327.06148179999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D39" s="123">
+        <f>-961.538*C39^2-51.851*C39+56.332396</f>
+        <v>53.339726949999999</v>
+      </c>
+      <c r="E39" s="128">
+        <f t="shared" si="7"/>
+        <v>326.48972694999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D40" s="123">
+        <f>-961.538*C40^2-51.851*C40+56.332396</f>
+        <v>52.719895200000003</v>
+      </c>
+      <c r="E40" s="128">
+        <f t="shared" si="7"/>
+        <v>325.86989519999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D41" s="123">
+        <f>-961.538*C41^2-51.851*C41+56.332396</f>
+        <v>52.051986550000002</v>
+      </c>
+      <c r="E41" s="128">
+        <f t="shared" si="7"/>
+        <v>325.20198654999996</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D42" s="129">
+        <f>-961.538*C42^2-51.851*C42+56.332396</f>
+        <v>51.336001000000003</v>
+      </c>
+      <c r="E42" s="130">
+        <f t="shared" si="7"/>
+        <v>324.48600099999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C20:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="51" t="s">
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>430</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
+      <c r="K11" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E13" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="G13" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="H13" s="93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="52">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25">
+      <c r="M13" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
-        <f>C7-1</f>
+      <c r="N13" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <f>$D$4/D7</f>
+      <c r="O13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="52">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <f>C14-1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="31">
+        <f t="shared" ref="E14:E19" si="0">$C$4/D14</f>
         <v>0.5</v>
       </c>
-      <c r="F7" s="24">
-        <v>100</v>
-      </c>
-      <c r="G7" s="46">
-        <v>-5.7220600000000004E-6</v>
-      </c>
-      <c r="H7" s="42">
-        <v>5.0000061999999996</v>
-      </c>
-      <c r="I7" s="57" t="s">
+      <c r="F14" s="98">
+        <v>81.400024400000007</v>
+      </c>
+      <c r="G14" s="99">
+        <v>-0.77624362999999996</v>
+      </c>
+      <c r="H14" s="57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="53">
+      <c r="I14" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="52">
+        <v>1</v>
+      </c>
+      <c r="L14" s="25">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17">
+        <f>L14-1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="47">
+      <c r="N14" s="31">
+        <f t="shared" ref="N14:N19" si="1">$C$4/M14</f>
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="53">
+        <v>2</v>
+      </c>
+      <c r="C15" s="47">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
-        <f t="shared" ref="D8:D12" si="0">C8-1</f>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:D19" si="2">C15-1</f>
         <v>4</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" ref="E8:E12" si="1">$D$4/D8</f>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
-        <f>F7</f>
-        <v>100</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="F15" s="100">
+        <v>10.8807764</v>
+      </c>
+      <c r="G15" s="101">
+        <v>9.4412660600000002</v>
+      </c>
+      <c r="H15" s="58">
+        <f>ABS((G15-G14)/G14)</f>
+        <v>13.162761400051682</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="53">
+        <v>2</v>
+      </c>
+      <c r="L15" s="47">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" ref="M15:M19" si="3">L15-1</f>
+        <v>4</v>
+      </c>
+      <c r="N15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="100">
         <v>-3.8147000000000001E-6</v>
       </c>
-      <c r="H8" s="43">
+      <c r="P15" s="101">
         <v>6.0000095399999998</v>
       </c>
-      <c r="I8" s="58">
-        <f>(H8-H7)/H7</f>
-        <v>0.20000041999947923</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="53">
+      <c r="Q15" s="58" t="e">
+        <f>(P15-P14)/P14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="53">
         <v>3</v>
       </c>
-      <c r="C9" s="47">
-        <f>C8+D8</f>
+      <c r="C16" s="47">
+        <f>C15+D15</f>
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D16" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F16" s="100">
+        <v>0.20726420000000001</v>
+      </c>
+      <c r="G16" s="101">
+        <v>21.601612100000001</v>
+      </c>
+      <c r="H16" s="58">
+        <f t="shared" ref="H16:H19" si="4">(G16-G15)/G15</f>
+        <v>1.2879995079812421</v>
+      </c>
+      <c r="I16" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="53">
+        <v>3</v>
+      </c>
+      <c r="L16" s="47">
+        <f>L15+M15</f>
+        <v>9</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E9" s="15">
+      <c r="N16" s="32">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:F12" si="2">F8</f>
-        <v>100</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="O16" s="100">
         <v>-2.1798299999999998E-6</v>
       </c>
-      <c r="H9" s="43">
+      <c r="P16" s="101">
         <v>6.6666689999999997</v>
       </c>
-      <c r="I9" s="58">
-        <f t="shared" ref="I9:I12" si="3">(H9-H8)/H8</f>
+      <c r="Q16" s="58">
+        <f t="shared" ref="Q16:Q19" si="5">(P16-P15)/P15</f>
         <v>0.111109733335524</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="53">
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="53">
         <v>4</v>
       </c>
-      <c r="C10" s="47">
-        <f>C9+D9</f>
+      <c r="C17" s="47">
+        <f>C16+D16</f>
         <v>17</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="32">
         <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F17" s="100">
+        <v>3.0620316000000002E-2</v>
+      </c>
+      <c r="G17" s="101">
+        <v>22.768726300000001</v>
+      </c>
+      <c r="H17" s="58">
+        <f t="shared" si="4"/>
+        <v>5.4029032398003309E-2</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="53">
+        <v>4</v>
+      </c>
+      <c r="L17" s="47">
+        <f>L16+M16</f>
+        <v>17</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="N17" s="32">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="O17" s="100">
+        <v>-7.1207999999999997E-6</v>
+      </c>
+      <c r="P17" s="101">
+        <v>7.0589360000000001</v>
+      </c>
+      <c r="Q17" s="58">
+        <f t="shared" si="5"/>
+        <v>5.8840029405989765E-2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="53">
+        <v>5</v>
+      </c>
+      <c r="C18" s="47">
+        <f>C17+D17</f>
+        <v>33</v>
+      </c>
+      <c r="D18" s="15">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G10" s="48">
-        <v>-7.1207999999999997E-6</v>
-      </c>
-      <c r="H10" s="43">
-        <v>7.0589360000000001</v>
-      </c>
-      <c r="I10" s="58">
+        <v>32</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F18" s="102">
+        <v>1.1448655300000001E-2</v>
+      </c>
+      <c r="G18" s="103">
+        <v>23.039722399999999</v>
+      </c>
+      <c r="H18" s="59">
+        <f t="shared" si="4"/>
+        <v>1.190211944354559E-2</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="53">
+        <v>5</v>
+      </c>
+      <c r="L18" s="47">
+        <f>L17+M17</f>
+        <v>33</v>
+      </c>
+      <c r="M18" s="15">
         <f t="shared" si="3"/>
-        <v>5.8840029405989765E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="53">
-        <v>5</v>
-      </c>
-      <c r="C11" s="47">
-        <f>C10+D10</f>
-        <v>33</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E11" s="15">
+      <c r="N18" s="32">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G11" s="49">
+      <c r="O18" s="102">
         <f>--0.000015751</f>
         <v>1.5750999999999999E-5</v>
       </c>
-      <c r="H11" s="56">
+      <c r="P18" s="103">
         <v>7.2731700000000004</v>
       </c>
-      <c r="I11" s="59">
+      <c r="Q18" s="59">
+        <f t="shared" si="5"/>
+        <v>3.0349333100625965E-2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="54">
+        <v>6</v>
+      </c>
+      <c r="C19" s="50">
+        <f>C18+D18</f>
+        <v>65</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F19" s="104">
+        <v>5.6391218700000004E-3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>23.097883199999998</v>
+      </c>
+      <c r="H19" s="60">
+        <f t="shared" si="4"/>
+        <v>2.5243706929385388E-3</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="54">
+        <v>6</v>
+      </c>
+      <c r="L19" s="50">
+        <f>L18+M18</f>
+        <v>65</v>
+      </c>
+      <c r="M19" s="18">
         <f t="shared" si="3"/>
-        <v>3.0349333100625965E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="54">
-        <v>6</v>
-      </c>
-      <c r="C12" s="50">
-        <f>C11+D11</f>
-        <v>65</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E12" s="18">
+      <c r="N19" s="33">
         <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="O19" s="104">
+        <v>3.1001989999999998E-5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7.3851760000000004</v>
+      </c>
+      <c r="Q19" s="60">
+        <f t="shared" si="5"/>
+        <v>1.5399887531846505E-2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="113"/>
+    </row>
+    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="52">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17">
+        <f>C22-1</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" ref="E22:E27" si="6">$C$4/D22</f>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="98">
+        <v>3.0517578099999999E-5</v>
+      </c>
+      <c r="G22" s="99">
+        <v>15.7651615</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="105"/>
+      <c r="K22" s="52">
+        <v>1</v>
+      </c>
+      <c r="L22" s="25">
+        <v>3</v>
+      </c>
+      <c r="M22" s="17">
+        <f>L22-1</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" ref="N22:N27" si="7">$C$4/M22</f>
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="98">
+        <v>31.663698199999999</v>
+      </c>
+      <c r="P22" s="99">
+        <v>-15.756850200000001</v>
+      </c>
+      <c r="Q22" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="53">
+        <v>2</v>
+      </c>
+      <c r="C23" s="47">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:D27" si="8">C23-1</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="100">
+        <v>3.8146972699999997E-6</v>
+      </c>
+      <c r="G23" s="101">
+        <v>19.843707999999999</v>
+      </c>
+      <c r="H23" s="58">
+        <f>(G23-G22)/G22</f>
+        <v>0.2587062936209058</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="106"/>
+      <c r="K23" s="53">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" ref="M23:M27" si="9">L23-1</f>
+        <v>4</v>
+      </c>
+      <c r="N23" s="32">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="O23" s="100">
+        <v>10.587899200000001</v>
+      </c>
+      <c r="P23" s="101">
+        <v>-15.7568512</v>
+      </c>
+      <c r="Q23" s="58">
+        <f>(P23-P22)/P22</f>
+        <v>6.3464460635133765E-8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="53">
+        <v>3</v>
+      </c>
+      <c r="C24" s="47">
+        <f>C23+D23</f>
+        <v>9</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="100">
+        <v>1.28064839E-5</v>
+      </c>
+      <c r="G24" s="101">
+        <v>22.1014175</v>
+      </c>
+      <c r="H24" s="58">
+        <f t="shared" ref="H24:H27" si="10">(G24-G23)/G23</f>
+        <v>0.11377457781579939</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="106"/>
+      <c r="K24" s="53">
+        <v>3</v>
+      </c>
+      <c r="L24" s="47">
+        <f>L23+M23</f>
+        <v>9</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N24" s="32">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="O24" s="100">
+        <v>4.5662417399999997</v>
+      </c>
+      <c r="P24" s="101">
+        <v>-15.7568483</v>
+      </c>
+      <c r="Q24" s="58">
+        <f t="shared" ref="Q24:Q27" si="11">(P24-P23)/P23</f>
+        <v>-1.8404692430800532E-7</v>
+      </c>
+      <c r="R24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="53">
+        <v>4</v>
+      </c>
+      <c r="C25" s="47">
+        <f>C24+D24</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F25" s="100">
+        <v>1.5640258400000002E-5</v>
+      </c>
+      <c r="G25" s="101">
+        <v>22.925611499999999</v>
+      </c>
+      <c r="H25" s="58">
+        <f t="shared" si="10"/>
+        <v>3.7291454269844843E-2</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="106"/>
+      <c r="K25" s="53">
+        <v>4</v>
+      </c>
+      <c r="L25" s="47">
+        <f>L24+M24</f>
+        <v>17</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N25" s="32">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O25" s="100">
+        <v>2.1575799999999998</v>
+      </c>
+      <c r="P25" s="101">
+        <v>-15.756850200000001</v>
+      </c>
+      <c r="Q25" s="58">
+        <f t="shared" si="11"/>
+        <v>1.2058248989344544E-7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="53">
+        <v>5</v>
+      </c>
+      <c r="C26" s="47">
+        <f>C25+D25</f>
+        <v>33</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F26" s="102">
+        <v>3.4886023000000001E-5</v>
+      </c>
+      <c r="G26" s="103">
+        <v>23.160425199999999</v>
+      </c>
+      <c r="H26" s="59">
+        <f t="shared" si="10"/>
+        <v>1.0242418179336247E-2</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="106"/>
+      <c r="K26" s="53">
+        <v>5</v>
+      </c>
+      <c r="L26" s="47">
+        <f>L25+M25</f>
+        <v>33</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O26" s="102">
+        <v>1.06976235</v>
+      </c>
+      <c r="P26" s="103">
+        <v>-15.7568521</v>
+      </c>
+      <c r="Q26" s="59">
+        <f t="shared" si="11"/>
+        <v>1.2058247524057479E-7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54">
+        <v>6</v>
+      </c>
+      <c r="C27" s="50">
+        <f>C26+D26</f>
+        <v>65</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F27" s="104">
+        <v>3.31723495E-5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>23.2192802</v>
+      </c>
+      <c r="H27" s="60">
+        <f t="shared" si="10"/>
+        <v>2.5411882334526923E-3</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="106"/>
+      <c r="K27" s="54">
+        <v>6</v>
+      </c>
+      <c r="L27" s="50">
+        <f>L26+M26</f>
+        <v>65</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="N27" s="33">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O27" s="104">
+        <v>0.55146622700000003</v>
+      </c>
+      <c r="P27" s="4">
+        <v>-15.761786499999999</v>
+      </c>
+      <c r="Q27" s="60">
+        <f t="shared" si="11"/>
+        <v>3.1315899703087161E-4</v>
+      </c>
+      <c r="R27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="113"/>
+    </row>
+    <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="52">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+      <c r="D30" s="17">
+        <f>C30-1</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" ref="E30:E35" si="12">$C$4/D30</f>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="98">
+        <v>3.8146972699999997E-6</v>
+      </c>
+      <c r="G30" s="99">
+        <v>15.7651711</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="105"/>
+      <c r="K30" s="52">
+        <v>1</v>
+      </c>
+      <c r="L30" s="25">
+        <v>3</v>
+      </c>
+      <c r="M30" s="17">
+        <f>L30-1</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="31">
+        <f t="shared" ref="N30:N36" si="13">$C$4/M30</f>
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="98">
+        <v>7.6293949999999998E-6</v>
+      </c>
+      <c r="P30" s="109">
+        <v>3.1678314999999999E-2</v>
+      </c>
+      <c r="Q30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="53">
+        <v>2</v>
+      </c>
+      <c r="C31" s="47">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" ref="D31:D35" si="14">C31-1</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="100">
+        <v>5.7220458999999997E-6</v>
+      </c>
+      <c r="G31" s="101">
+        <v>19.843698499999999</v>
+      </c>
+      <c r="H31" s="58">
+        <f>(G31-G30)/G30</f>
+        <v>0.2587049245535939</v>
+      </c>
+      <c r="I31" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="106"/>
+      <c r="K31" s="53">
+        <v>2</v>
+      </c>
+      <c r="L31" s="47">
+        <v>5</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" ref="M31:M35" si="15">L31-1</f>
+        <v>4</v>
+      </c>
+      <c r="N31" s="32">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="O31" s="100">
+        <v>1.9073486E-6</v>
+      </c>
+      <c r="P31" s="110">
+        <v>6.3153140199999999E-2</v>
+      </c>
+      <c r="Q31" s="58">
+        <f>(P31-P30)/P30</f>
+        <v>0.99357636919766734</v>
+      </c>
+      <c r="R31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="53">
+        <v>3</v>
+      </c>
+      <c r="C32" s="47">
+        <f>C31+D31</f>
+        <v>9</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="F32" s="100">
+        <v>7.2547368300000002E-6</v>
+      </c>
+      <c r="G32" s="101">
+        <v>22.101434699999999</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" ref="H32:H35" si="16">(G32-G31)/G31</f>
+        <v>0.11377597779970303</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="106"/>
+      <c r="K32" s="53">
+        <v>3</v>
+      </c>
+      <c r="L32" s="47">
+        <f>L31+M31</f>
+        <v>9</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="32">
+        <f t="shared" si="13"/>
+        <v>0.125</v>
+      </c>
+      <c r="O32" s="100">
+        <v>1.08991355E-6</v>
+      </c>
+      <c r="P32" s="101">
+        <v>0.124734</v>
+      </c>
+      <c r="Q32" s="58">
+        <f t="shared" ref="Q32:Q36" si="17">(P32-P31)/P31</f>
+        <v>0.97510368613467613</v>
+      </c>
+      <c r="R32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="53">
+        <v>4</v>
+      </c>
+      <c r="C33" s="47">
+        <f>C32+D32</f>
+        <v>17</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E33" s="32">
+        <f t="shared" si="12"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33" s="100">
+        <v>2.3465469999999999E-5</v>
+      </c>
+      <c r="G33" s="101">
+        <v>22.925611499999999</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="16"/>
+        <v>3.7290647018494237E-2</v>
+      </c>
+      <c r="I33" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="107"/>
+      <c r="K33" s="53">
+        <v>4</v>
+      </c>
+      <c r="L33" s="47">
+        <f>L32+M32</f>
+        <v>17</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O33" s="100">
+        <v>1.3351440000000001E-6</v>
+      </c>
+      <c r="P33" s="101">
+        <v>0.238368</v>
+      </c>
+      <c r="Q33" s="58">
+        <f t="shared" si="17"/>
+        <v>0.91101063062196352</v>
+      </c>
+      <c r="R33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B34" s="53">
+        <v>5</v>
+      </c>
+      <c r="C34" s="47">
+        <f>C33+D33</f>
+        <v>33</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="32">
+        <f t="shared" si="12"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F34" s="102">
+        <v>2.0592442499999999E-5</v>
+      </c>
+      <c r="G34" s="103">
+        <v>23.160718899999999</v>
+      </c>
+      <c r="H34" s="59">
+        <f t="shared" si="16"/>
+        <v>1.0255229178946891E-2</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="106"/>
+      <c r="K34" s="53">
+        <v>5</v>
+      </c>
+      <c r="L34" s="47">
+        <f>L33+M33</f>
+        <v>33</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="N34" s="32">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O34" s="102">
+        <v>5.6912824699999996E-7</v>
+      </c>
+      <c r="P34" s="103">
+        <v>0.41576248399999999</v>
+      </c>
+      <c r="Q34" s="59">
+        <f t="shared" si="17"/>
+        <v>0.74420427238555509</v>
+      </c>
+      <c r="R34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="54">
+        <v>6</v>
+      </c>
+      <c r="C35" s="50">
+        <f>C34+D34</f>
+        <v>65</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="E35" s="33">
+        <f t="shared" si="12"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F35" s="104">
+        <v>5.5411033799999998E-5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>23.2191334</v>
+      </c>
+      <c r="H35" s="60">
+        <f t="shared" si="16"/>
+        <v>2.5221367373014216E-3</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="107"/>
+      <c r="K35" s="54">
+        <v>6</v>
+      </c>
+      <c r="L35" s="50">
+        <f>L34+M34</f>
+        <v>65</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="N35" s="33">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O35" s="104">
+        <v>2.9613100000000002E-7</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.61594939199999998</v>
+      </c>
+      <c r="Q35" s="60">
+        <f t="shared" si="17"/>
+        <v>0.48149343845078624</v>
+      </c>
+      <c r="R35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="54">
+        <v>7</v>
+      </c>
+      <c r="L36" s="50">
+        <v>101</v>
+      </c>
+      <c r="M36" s="18">
+        <f>L36-1</f>
+        <v>100</v>
+      </c>
+      <c r="N36" s="33">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="O36" s="104">
+        <v>2.7916869999999997E-7</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.71954399999999996</v>
+      </c>
+      <c r="Q36" s="60">
+        <f t="shared" si="17"/>
+        <v>0.1681868824703702</v>
+      </c>
+      <c r="R36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B28:H28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="17" width="21.44140625" customWidth="1"/>
+    <col min="18" max="18" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>430</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
+      <c r="K11" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="119"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="108" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="52">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <f>C14-1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="31">
+        <f t="shared" ref="E14:E19" si="0">$C$4/D14</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="98">
+        <v>8.3893537499999998E-6</v>
+      </c>
+      <c r="G14" s="99">
+        <v>22.947734799999999</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="52">
+        <v>1</v>
+      </c>
+      <c r="L14" s="25">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17">
+        <f>L14-1</f>
+        <v>2</v>
+      </c>
+      <c r="N14" s="31">
+        <f t="shared" ref="N14:N19" si="1">$C$4/M14</f>
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="53">
+        <v>2</v>
+      </c>
+      <c r="C15" s="47">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:D19" si="2">C15-1</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="100">
+        <v>8.2799233500000003E-6</v>
+      </c>
+      <c r="G15" s="101">
+        <v>27.795164100000001</v>
+      </c>
+      <c r="H15" s="58">
+        <f>ABS((G15-G14)/G14)</f>
+        <v>0.21123781245720175</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="53">
+        <v>2</v>
+      </c>
+      <c r="L15" s="47">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" ref="M15:M19" si="3">L15-1</f>
+        <v>4</v>
+      </c>
+      <c r="N15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="100">
+        <v>-3.8147000000000001E-6</v>
+      </c>
+      <c r="P15" s="101">
+        <v>6.0000095399999998</v>
+      </c>
+      <c r="Q15" s="58" t="e">
+        <f>(P15-P14)/P14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="53">
+        <v>3</v>
+      </c>
+      <c r="C16" s="47">
+        <f>C15+D15</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="15">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F16" s="100">
+        <v>6.2875124100000003E-6</v>
+      </c>
+      <c r="G16" s="101">
+        <v>30.541406599999998</v>
+      </c>
+      <c r="H16" s="58">
+        <f t="shared" ref="H16:H19" si="4">(G16-G15)/G15</f>
+        <v>9.8802888521172555E-2</v>
+      </c>
+      <c r="I16" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="53">
+        <v>3</v>
+      </c>
+      <c r="L16" s="47">
+        <f>L15+M15</f>
+        <v>9</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N16" s="32">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="O16" s="100">
+        <v>-2.1798299999999998E-6</v>
+      </c>
+      <c r="P16" s="101">
+        <v>6.6666689999999997</v>
+      </c>
+      <c r="Q16" s="58">
+        <f t="shared" ref="Q16:Q19" si="5">(P16-P15)/P15</f>
+        <v>0.111109733335524</v>
+      </c>
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="53">
+        <v>4</v>
+      </c>
+      <c r="C17" s="47">
+        <f>C16+D16</f>
+        <v>17</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F17" s="100">
+        <v>7.8671418999999996E-6</v>
+      </c>
+      <c r="G17" s="101">
+        <v>31.567201600000001</v>
+      </c>
+      <c r="H17" s="58">
+        <f t="shared" si="4"/>
+        <v>3.3587025425345085E-2</v>
+      </c>
+      <c r="I17" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="53">
+        <v>4</v>
+      </c>
+      <c r="L17" s="47">
+        <f>L16+M16</f>
+        <v>17</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N17" s="32">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O17" s="100">
+        <v>-7.1207999999999997E-6</v>
+      </c>
+      <c r="P17" s="101">
+        <v>7.0589360000000001</v>
+      </c>
+      <c r="Q17" s="58">
+        <f t="shared" si="5"/>
+        <v>5.8840029405989765E-2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="53">
+        <v>5</v>
+      </c>
+      <c r="C18" s="47">
+        <f>C17+D17</f>
+        <v>33</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F18" s="102">
+        <v>1.6859621600000001E-5</v>
+      </c>
+      <c r="G18" s="103">
+        <v>31.863575000000001</v>
+      </c>
+      <c r="H18" s="59">
+        <f t="shared" si="4"/>
+        <v>9.3886497686890384E-3</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="106"/>
+      <c r="K18" s="53">
+        <v>5</v>
+      </c>
+      <c r="L18" s="47">
+        <f>L17+M17</f>
+        <v>33</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="N18" s="32">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O18" s="102">
+        <f>--0.000015751</f>
+        <v>1.5750999999999999E-5</v>
+      </c>
+      <c r="P18" s="103">
+        <v>7.2731700000000004</v>
+      </c>
+      <c r="Q18" s="59">
+        <f t="shared" si="5"/>
+        <v>3.0349333100625965E-2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="54">
+        <v>6</v>
+      </c>
+      <c r="C19" s="50">
+        <f>C18+D18</f>
+        <v>65</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F19" s="104">
+        <v>2.7094059999999999E-5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>31.938756900000001</v>
+      </c>
+      <c r="H19" s="60">
+        <f t="shared" si="4"/>
+        <v>2.3594935596523764E-3</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="54">
+        <v>6</v>
+      </c>
+      <c r="L19" s="50">
+        <f>L18+M18</f>
+        <v>65</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O19" s="104">
+        <v>3.1001989999999998E-5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>7.3851760000000004</v>
+      </c>
+      <c r="Q19" s="60">
+        <f t="shared" si="5"/>
+        <v>1.5399887531846505E-2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="113"/>
+    </row>
+    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="52">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3</v>
+      </c>
+      <c r="D22" s="17">
+        <f>C22-1</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" ref="E22:E27" si="6">$C$4/D22</f>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="98">
+        <v>7.1525573700000001E-6</v>
+      </c>
+      <c r="G22" s="99">
+        <v>22.947738600000001</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="105"/>
+      <c r="K22" s="52">
+        <v>1</v>
+      </c>
+      <c r="L22" s="25">
+        <v>3</v>
+      </c>
+      <c r="M22" s="17">
+        <f>L22-1</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" ref="N22:N27" si="7">$C$4/M22</f>
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="98">
+        <v>9.9662274100000003E-2</v>
+      </c>
+      <c r="P22" s="109">
+        <v>2.5001404800000002E-2</v>
+      </c>
+      <c r="Q22" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="53">
+        <v>2</v>
+      </c>
+      <c r="C23" s="47">
+        <v>5</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:D27" si="8">C23-1</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="100">
+        <v>5.7220458999999997E-6</v>
+      </c>
+      <c r="G23" s="101">
+        <v>27.795164100000001</v>
+      </c>
+      <c r="H23" s="58">
+        <f>(G23-G22)/G22</f>
+        <v>0.21123761188390039</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="106"/>
+      <c r="K23" s="53">
+        <v>2</v>
+      </c>
+      <c r="L23" s="47">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" ref="M23:M27" si="9">L23-1</f>
+        <v>4</v>
+      </c>
+      <c r="N23" s="32">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="O23" s="100">
+        <v>6.6124595699999997E-2</v>
+      </c>
+      <c r="P23" s="110">
+        <v>2.5014908999999998E-2</v>
+      </c>
+      <c r="Q23" s="58">
+        <f>(P23-P22)/P22</f>
+        <v>5.4013764858511942E-4</v>
+      </c>
+      <c r="R23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="53">
+        <v>3</v>
+      </c>
+      <c r="C24" s="47">
+        <f>C23+D23</f>
+        <v>9</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="100">
+        <v>7.5612747400000002E-6</v>
+      </c>
+      <c r="G24" s="101">
+        <v>30.541389500000001</v>
+      </c>
+      <c r="H24" s="58">
+        <f t="shared" ref="H24:H27" si="10">(G24-G23)/G23</f>
+        <v>9.8802273306240349E-2</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="106"/>
+      <c r="K24" s="53">
+        <v>3</v>
+      </c>
+      <c r="L24" s="47">
+        <f>L23+M23</f>
+        <v>9</v>
+      </c>
+      <c r="M24" s="15">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="N24" s="32">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="O24" s="100">
+        <v>5.5668354000000003E-2</v>
+      </c>
+      <c r="P24" s="110">
+        <v>2.52731647E-2</v>
+      </c>
+      <c r="Q24" s="58">
+        <f t="shared" ref="Q24:Q27" si="11">(P24-P23)/P23</f>
+        <v>1.0324071136936829E-2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="53">
+        <v>4</v>
+      </c>
+      <c r="C25" s="47">
+        <f>C24+D24</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F25" s="100">
+        <v>9.3460084800000002E-6</v>
+      </c>
+      <c r="G25" s="101">
+        <v>31.567163499999999</v>
+      </c>
+      <c r="H25" s="58">
+        <f t="shared" si="10"/>
+        <v>3.3586356639078205E-2</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="106"/>
+      <c r="K25" s="53">
+        <v>4</v>
+      </c>
+      <c r="L25" s="47">
+        <f>L24+M24</f>
+        <v>17</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="N25" s="32">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O25" s="100">
+        <v>4.8688367000000003E-2</v>
+      </c>
+      <c r="P25" s="110">
+        <v>3.0464356800000002E-2</v>
+      </c>
+      <c r="Q25" s="58">
+        <f t="shared" si="11"/>
+        <v>0.20540332647774823</v>
+      </c>
+      <c r="R25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="53">
+        <v>5</v>
+      </c>
+      <c r="C26" s="47">
+        <f>C25+D25</f>
+        <v>33</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F26" s="102">
+        <v>1.4197441500000001E-5</v>
+      </c>
+      <c r="G26" s="103">
+        <v>31.8636494</v>
+      </c>
+      <c r="H26" s="59">
+        <f t="shared" si="10"/>
+        <v>9.3922249301873588E-3</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="106"/>
+      <c r="K26" s="53">
+        <v>5</v>
+      </c>
+      <c r="L26" s="47">
+        <f>L25+M25</f>
+        <v>33</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O26" s="102">
+        <v>3.6994702999999997E-2</v>
+      </c>
+      <c r="P26" s="103">
+        <v>0.106039681</v>
+      </c>
+      <c r="Q26" s="59">
+        <f t="shared" si="11"/>
+        <v>2.4807785930343353</v>
+      </c>
+      <c r="R26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="54">
+        <v>6</v>
+      </c>
+      <c r="C27" s="50">
+        <f>C26+D26</f>
+        <v>65</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F27" s="104">
+        <v>2.5832463500000001E-5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>31.938901900000001</v>
+      </c>
+      <c r="H27" s="60">
+        <f t="shared" si="10"/>
+        <v>2.3617037413172538E-3</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="106"/>
+      <c r="K27" s="54">
+        <v>6</v>
+      </c>
+      <c r="L27" s="50">
+        <f>L26+M26</f>
+        <v>65</v>
+      </c>
+      <c r="M27" s="18">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="N27" s="33">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O27" s="104">
+        <v>1.8193084700000001E-2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.40764519599999999</v>
+      </c>
+      <c r="Q27" s="60">
+        <f t="shared" si="11"/>
+        <v>2.8442702972673031</v>
+      </c>
+      <c r="R27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="113"/>
+    </row>
+    <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="52">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25">
+        <v>3</v>
+      </c>
+      <c r="D30" s="17">
+        <f>C30-1</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" ref="E30:E35" si="12">$C$4/D30</f>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="98">
+        <v>5.8412551899999997E-6</v>
+      </c>
+      <c r="G30" s="99">
+        <v>22.9477367</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="105"/>
+      <c r="K30" s="52">
+        <v>1</v>
+      </c>
+      <c r="L30" s="25">
+        <v>3</v>
+      </c>
+      <c r="M30" s="17">
+        <f>L30-1</f>
+        <v>2</v>
+      </c>
+      <c r="N30" s="31">
+        <f t="shared" ref="N30:N37" si="13">$C$4/M30</f>
+        <v>0.5</v>
+      </c>
+      <c r="O30" s="98">
+        <v>1.10827386E-7</v>
+      </c>
+      <c r="P30" s="109">
+        <v>8.2022756299999999E-2</v>
+      </c>
+      <c r="Q30" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="53">
+        <v>2</v>
+      </c>
+      <c r="C31" s="47">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" ref="D31:D35" si="14">C31-1</f>
+        <v>4</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="100">
+        <v>5.7031088500000002E-6</v>
+      </c>
+      <c r="G31" s="101">
+        <v>27.795173599999998</v>
+      </c>
+      <c r="H31" s="58">
+        <f>(G31-G30)/G30</f>
+        <v>0.21123812615472437</v>
+      </c>
+      <c r="I31" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="106"/>
+      <c r="K31" s="53">
+        <v>2</v>
+      </c>
+      <c r="L31" s="47">
+        <v>5</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" ref="M31:M35" si="15">L31-1</f>
+        <v>4</v>
+      </c>
+      <c r="N31" s="32">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="O31" s="100">
+        <v>5.79776543E-6</v>
+      </c>
+      <c r="P31" s="110">
+        <v>0.15037271399999999</v>
+      </c>
+      <c r="Q31" s="58">
+        <f>(P31-P30)/P30</f>
+        <v>0.83330481421532032</v>
+      </c>
+      <c r="R31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="53">
+        <v>3</v>
+      </c>
+      <c r="C32" s="47">
+        <f>C31+D31</f>
+        <v>9</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="F32" s="100">
+        <v>8.3142949699999995E-6</v>
+      </c>
+      <c r="G32" s="101">
+        <v>30.541389500000001</v>
+      </c>
+      <c r="H32" s="58">
+        <f t="shared" ref="H32:H35" si="16">(G32-G31)/G31</f>
+        <v>9.8801897751054274E-2</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="106"/>
+      <c r="K32" s="53">
+        <v>3</v>
+      </c>
+      <c r="L32" s="47">
+        <f>L31+M31</f>
+        <v>9</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="32">
+        <f t="shared" si="13"/>
+        <v>0.125</v>
+      </c>
+      <c r="O32" s="100">
+        <v>2.92940581E-6</v>
+      </c>
+      <c r="P32" s="101">
+        <v>0.265174627</v>
+      </c>
+      <c r="Q32" s="58">
+        <f t="shared" ref="Q32:Q37" si="17">(P32-P31)/P31</f>
+        <v>0.76344909888372448</v>
+      </c>
+      <c r="R32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="53">
+        <v>4</v>
+      </c>
+      <c r="C33" s="47">
+        <f>C32+D32</f>
+        <v>17</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E33" s="32">
+        <f t="shared" si="12"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33" s="100">
+        <v>8.65610309E-6</v>
+      </c>
+      <c r="G33" s="101">
+        <v>31.567274099999999</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" si="16"/>
+        <v>3.3589977954342834E-2</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="107"/>
+      <c r="K33" s="53">
+        <v>4</v>
+      </c>
+      <c r="L33" s="47">
+        <f>L32+M32</f>
+        <v>17</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="N33" s="32">
+        <f t="shared" si="13"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O33" s="100">
+        <v>1.5796214299999999E-6</v>
+      </c>
+      <c r="P33" s="101">
+        <v>0.44104397299999998</v>
+      </c>
+      <c r="Q33" s="58">
+        <f t="shared" si="17"/>
+        <v>0.66322086690443416</v>
+      </c>
+      <c r="R33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B34" s="53">
+        <v>5</v>
+      </c>
+      <c r="C34" s="47">
+        <f>C33+D33</f>
+        <v>33</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="E34" s="32">
+        <f t="shared" si="12"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F34" s="102">
+        <v>1.6039297399999999E-5</v>
+      </c>
+      <c r="G34" s="103">
+        <v>31.8637218</v>
+      </c>
+      <c r="H34" s="59">
+        <f t="shared" si="16"/>
+        <v>9.3909819093312731E-3</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="106"/>
+      <c r="K34" s="53">
+        <v>5</v>
+      </c>
+      <c r="L34" s="47">
+        <f>L33+M33</f>
+        <v>33</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="N34" s="32">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O34" s="102">
+        <v>8.2505817999999997E-7</v>
+      </c>
+      <c r="P34" s="103">
+        <v>0.67316448699999998</v>
+      </c>
+      <c r="Q34" s="59">
+        <f t="shared" si="17"/>
+        <v>0.52629789365696655</v>
+      </c>
+      <c r="R34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="54">
+        <v>6</v>
+      </c>
+      <c r="C35" s="50">
+        <f>C34+D34</f>
+        <v>65</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="E35" s="33">
+        <f t="shared" si="12"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F35" s="104">
+        <v>4.1387545899999997E-5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>31.939048799999998</v>
+      </c>
+      <c r="H35" s="60">
+        <f t="shared" si="16"/>
+        <v>2.3640364572853484E-3</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" s="107"/>
+      <c r="K35" s="54">
+        <v>6</v>
+      </c>
+      <c r="L35" s="50">
+        <f>L34+M34</f>
+        <v>65</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="N35" s="33">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O35" s="104">
+        <v>4.2961502800000002E-7</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.91360807399999999</v>
+      </c>
+      <c r="Q35" s="60">
+        <f t="shared" si="17"/>
+        <v>0.3571840042714553</v>
+      </c>
+      <c r="R35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="54">
+        <v>7</v>
+      </c>
+      <c r="L36" s="50">
+        <v>101</v>
+      </c>
+      <c r="M36" s="18">
+        <f>L36-1</f>
         <v>100</v>
       </c>
-      <c r="G12" s="55">
-        <v>3.1001989999999998E-5</v>
-      </c>
-      <c r="H12" s="33">
-        <v>7.3851760000000004</v>
-      </c>
-      <c r="I12" s="60">
-        <f t="shared" si="3"/>
-        <v>1.5399887531846505E-2</v>
+      <c r="N36" s="140">
+        <f t="shared" si="13"/>
+        <v>0.01</v>
+      </c>
+      <c r="O36" s="104">
+        <v>2.8228799900000002E-7</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1.0366051199999999</v>
+      </c>
+      <c r="Q36" s="60">
+        <f t="shared" si="17"/>
+        <v>0.13462780102357103</v>
+      </c>
+      <c r="R36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="54">
+        <v>8</v>
+      </c>
+      <c r="L37" s="50">
+        <v>115</v>
+      </c>
+      <c r="M37" s="18">
+        <f>L37-1</f>
+        <v>114</v>
+      </c>
+      <c r="N37" s="140">
+        <f t="shared" si="13"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="O37" s="104">
+        <v>9.6883677500000004E-6</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1.06513309</v>
+      </c>
+      <c r="Q37" s="60">
+        <f t="shared" si="17"/>
+        <v>2.752057601259009E-2</v>
+      </c>
+      <c r="R37" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="K20:Q20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assignment_1/assignment_1.xlsx
+++ b/assignment_1/assignment_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="problem1" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="problem4_273_inf" sheetId="7" r:id="rId4"/>
     <sheet name="problem4_0_inf" sheetId="9" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="output_linearization_1_CV_31_output" localSheetId="1">problem2!$J$64:$Q$97</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,8 +98,27 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="output_linearization_1_CV_31_output" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alex\Documents\GitHub\CFD_course\assignment_1\problem_2\output_linearization_1_CV_31_output.txt" delimited="0">
+      <textFields count="8">
+        <textField/>
+        <textField position="2"/>
+        <textField position="7"/>
+        <textField position="17"/>
+        <textField position="29"/>
+        <textField position="40"/>
+        <textField position="51"/>
+        <textField position="61"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="140">
   <si>
     <t>Trial</t>
   </si>
@@ -236,9 +258,6 @@
     <t>W/mK</t>
   </si>
   <si>
-    <t>Temperature distribution did not change over any of the iterations</t>
-  </si>
-  <si>
     <t>TINF</t>
   </si>
   <si>
@@ -287,9 +306,6 @@
     <t>X Pos</t>
   </si>
   <si>
-    <t>residuals did not reach criteriaf for IE = 65, stuck at 1.25E-5, converged to that value</t>
-  </si>
-  <si>
     <t>Y,Z</t>
   </si>
   <si>
@@ -501,6 +517,27 @@
   </si>
   <si>
     <t>residuals reached crit after 10 iterations, did not converge</t>
+  </si>
+  <si>
+    <t>residuals converged after 1st it. Didn't reach crit</t>
+  </si>
+  <si>
+    <t>residuals didn't reach crit, but converged after 1st it</t>
+  </si>
+  <si>
+    <t>reached crit after 1st it</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>I XP</t>
+  </si>
+  <si>
+    <t>T DE ATW</t>
+  </si>
+  <si>
+    <t>ATP BT</t>
   </si>
 </sst>
 </file>
@@ -510,7 +547,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1737,6 +1774,35 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1755,15 +1821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,26 +1828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1859,22 +1896,11 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>problem2!$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ts(x) [C]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1901,6 +1927,259 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>problem2!$L$65:$L$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8390000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0649999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11291</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20968999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27421000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30647000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33872999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37098999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46777000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50002999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53229000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59680999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62907000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66132999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69359000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72585</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75810999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79037000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82262999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.85489000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88714999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91940999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98392999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0000599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>problem2!$M$65:$M$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>373.14999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366.38278000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355.12061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.75576999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.97626000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331.52303999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>326.18124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.77294999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.15134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315.19583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>312.80795000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>310.90823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309.43340999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>308.33434999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>307.57445999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>307.12842000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306.98138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>307.12839000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>307.57443000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>308.33431999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>309.43338</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>310.90820000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>312.80788999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>315.19574</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>318.15125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.77283</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>326.18112000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331.52292</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>337.97613999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>345.75565</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>355.12054000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>366.38272000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>373.14999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB46-4949-9803-5D7A66860A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>series2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>problem2!$B$46:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2006,113 +2285,113 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>problem2!$C$46:$C$77</c:f>
+              <c:f>problem2!$D$46:$D$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>373.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.954030027031223</c:v>
+                  <c:v>356.10403002703117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.789109072715775</c:v>
+                  <c:v>342.93910907271572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.623612450615759</c:v>
+                  <c:v>332.77361245061576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.776780070864731</c:v>
+                  <c:v>324.92678007086471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.723127491867075</c:v>
+                  <c:v>318.87312749186708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.057255427498404</c:v>
+                  <c:v>314.20725542749835</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.466701082882665</c:v>
+                  <c:v>310.61670108288263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.711013234712439</c:v>
+                  <c:v>307.8610132347124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.605649762036585</c:v>
+                  <c:v>305.75564976203657</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.009619281930959</c:v>
+                  <c:v>304.15961928193093</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.816039278621162</c:v>
+                  <c:v>302.96603927862111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.944978425530433</c:v>
+                  <c:v>302.09497842553043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.338103766909224</c:v>
+                  <c:v>301.48810376690921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.954774293026389</c:v>
+                  <c:v>301.10477429302637</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.769319304575259</c:v>
+                  <c:v>300.91931930457525</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.769319304575259</c:v>
+                  <c:v>300.91931930457525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.954774293026389</c:v>
+                  <c:v>301.10477429302637</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.338103766909224</c:v>
+                  <c:v>301.48810376690921</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.944978425530433</c:v>
+                  <c:v>302.09497842553043</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.816039278621162</c:v>
+                  <c:v>302.96603927862111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.009619281930956</c:v>
+                  <c:v>304.15961928193093</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.605649762036585</c:v>
+                  <c:v>305.75564976203657</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.711013234712439</c:v>
+                  <c:v>307.8610132347124</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.466701082882665</c:v>
+                  <c:v>310.61670108288263</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.057255427498404</c:v>
+                  <c:v>314.20725542749835</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.723127491867047</c:v>
+                  <c:v>318.87312749186702</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.776780070864731</c:v>
+                  <c:v>324.92678007086471</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>59.623612450615759</c:v>
+                  <c:v>332.77361245061576</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.78910907271576</c:v>
+                  <c:v>342.93910907271572</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82.954030027031223</c:v>
+                  <c:v>356.10403002703117</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>373.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3DB-4743-B940-CDA1A62E3B6C}"/>
+              <c16:uniqueId val="{00000001-DB46-4949-9803-5D7A66860A1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2124,11 +2403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466715384"/>
-        <c:axId val="466714072"/>
+        <c:axId val="454081896"/>
+        <c:axId val="73910120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466715384"/>
+        <c:axId val="454081896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466714072"/>
+        <c:crossAx val="73910120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466714072"/>
+        <c:axId val="73910120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466715384"/>
+        <c:crossAx val="454081896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,22 +4221,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74705</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>144930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1262530</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>141940</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>769470</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD11FE37-9F1F-4590-AED0-6746823DC719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F74A180-FDF9-415A-983A-3994068993B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4017,6 +4296,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_linearization_1_CV_31_output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4318,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4468,7 +4751,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="46">
-        <v>-1.9073486E-6</v>
+        <v>1.9073486E-6</v>
       </c>
       <c r="H14" s="42">
         <v>3.7500047699999999</v>
@@ -4476,9 +4759,7 @@
       <c r="I14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="10">
-        <v>6000.0073199999997</v>
-      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="53">
@@ -4500,7 +4781,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="48">
-        <v>-1.2715658000000001E-6</v>
+        <v>1.2715658000000001E-6</v>
       </c>
       <c r="H15" s="43">
         <v>3.7500092999999999</v>
@@ -4527,11 +4808,11 @@
         <v>0.125</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F19" si="2">F15</f>
+        <f t="shared" ref="F16:F20" si="2">F15</f>
         <v>100</v>
       </c>
       <c r="G16" s="48">
-        <v>-3.2697409999999999E-6</v>
+        <v>5.4495676499999996E-6</v>
       </c>
       <c r="H16" s="43">
         <v>3.7500183599999999</v>
@@ -4541,7 +4822,7 @@
         <v>2.4159940083362396E-6</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="53">
         <v>4</v>
       </c>
@@ -4562,7 +4843,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="48">
-        <v>-6.1035157200000004E-6</v>
+        <v>1.6276042500000001E-5</v>
       </c>
       <c r="H17" s="43">
         <v>3.7500367200000002</v>
@@ -4571,8 +4852,11 @@
         <f t="shared" si="3"/>
         <v>4.8959760293888571E-6</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="53">
         <v>5</v>
       </c>
@@ -4593,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="49">
-        <v>-9.8443797499999997E-6</v>
+        <v>2.16576354E-5</v>
       </c>
       <c r="H18" s="56">
         <v>3.7501466300000001</v>
@@ -4602,8 +4886,11 @@
         <f t="shared" si="3"/>
         <v>2.9309046339134336E-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="54">
         <v>6</v>
       </c>
@@ -4624,33 +4911,49 @@
         <v>100</v>
       </c>
       <c r="G19" s="55">
-        <v>1.2500000000000001E-5</v>
+        <v>3.9721293400000003E-5</v>
       </c>
       <c r="H19" s="33">
-        <v>7.3851760000000004</v>
+        <v>3.7482149599999999</v>
       </c>
       <c r="I19" s="60">
         <f t="shared" si="3"/>
-        <v>0.9693032642832955</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-5.1509185922158837E-4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="54">
+        <v>7</v>
+      </c>
+      <c r="C20" s="50">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" ref="D20" si="5">C20-1</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ref="E20" si="6">$D$4/D20</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="33">
+        <v>3.7500002399999999</v>
+      </c>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="C21" s="81" t="s">
-        <v>46</v>
-      </c>
+      <c r="C21" s="81"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -4658,7 +4961,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -4668,7 +4971,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -4678,7 +4981,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -4688,42 +4991,42 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -4908,20 +5211,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="102" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A14" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="1.21875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.109375" customWidth="1"/>
     <col min="19" max="19" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -4932,132 +5240,132 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="134"/>
       <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="125">
+      <c r="D3" s="113">
         <v>1</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="114" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123">
+      <c r="C4" s="111"/>
+      <c r="D4" s="111">
         <v>7800</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="116" t="s">
         <v>44</v>
       </c>
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111">
         <v>60</v>
       </c>
-      <c r="E5" s="128" t="s">
+      <c r="E5" s="116" t="s">
         <v>45</v>
       </c>
       <c r="M5" s="27"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123">
+      <c r="C6" s="111"/>
+      <c r="D6" s="111">
         <v>430</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="116" t="s">
         <v>43</v>
       </c>
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123">
+      <c r="C7" s="111"/>
+      <c r="D7" s="111">
         <v>12</v>
       </c>
-      <c r="E7" s="128" t="s">
+      <c r="E7" s="116" t="s">
         <v>42</v>
       </c>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123">
+      <c r="C8" s="111"/>
+      <c r="D8" s="111">
         <v>100</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="116" t="s">
         <v>41</v>
       </c>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111">
         <v>100</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="E9" s="116" t="s">
         <v>41</v>
       </c>
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123">
+      <c r="B10" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111">
         <v>25</v>
       </c>
-      <c r="E10" s="128" t="s">
+      <c r="E10" s="116" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129">
+      <c r="B11" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117">
         <f>0.0125</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="118" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="27"/>
@@ -5068,12 +5376,12 @@
     </row>
     <row r="13" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="45"/>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
       <c r="M13" s="45" t="s">
         <v>17</v>
       </c>
@@ -5117,16 +5425,16 @@
       </c>
       <c r="K14" s="80"/>
       <c r="M14" s="45"/>
-      <c r="R14" s="111" t="s">
+      <c r="R14" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="112"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="111" t="s">
+      <c r="S14" s="133"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="112"/>
-      <c r="W14" s="113"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="134"/>
     </row>
     <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="19">
@@ -5541,11 +5849,11 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="134"/>
     </row>
     <row r="22" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
@@ -5580,11 +5888,11 @@
     </row>
     <row r="23" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="45"/>
-      <c r="G23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
+      <c r="G23" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="133"/>
+      <c r="I23" s="134"/>
       <c r="J23" s="6"/>
       <c r="M23" s="19">
         <v>1</v>
@@ -5628,13 +5936,13 @@
         <v>8</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="20">
         <v>2</v>
@@ -5690,7 +5998,7 @@
       </c>
       <c r="I25" s="72"/>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="M25" s="20">
         <v>3</v>
@@ -5748,6 +6056,9 @@
         <f>(G26-G25)/G25</f>
         <v>0.28047145154102143</v>
       </c>
+      <c r="J26" t="s">
+        <v>135</v>
+      </c>
       <c r="M26" s="20">
         <v>4</v>
       </c>
@@ -5805,7 +6116,7 @@
         <v>6.0765911529266935E-2</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M27" s="64">
         <v>5</v>
@@ -5864,7 +6175,7 @@
         <v>1.3590426064108206E-2</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -5903,7 +6214,7 @@
         <v>3.1413368037167518E-3</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -5944,20 +6255,20 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="111" t="s">
+      <c r="R30" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="113"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="134"/>
     </row>
     <row r="31" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="45"/>
-      <c r="G31" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="113"/>
+      <c r="G31" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="133"/>
+      <c r="I31" s="134"/>
       <c r="M31" s="11" t="s">
         <v>0</v>
       </c>
@@ -6009,13 +6320,13 @@
         <v>8</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M32" s="19">
         <v>1</v>
@@ -6084,7 +6395,7 @@
       <c r="I33" s="72"/>
       <c r="J33" t="str">
         <f>J25</f>
-        <v>residuals didn't reach crit, but converged</v>
+        <v>residuals didn't reach crit, but converged after 1st it</v>
       </c>
       <c r="M33" s="20">
         <v>2</v>
@@ -6154,9 +6465,9 @@
         <f>(G34-G33)/G33</f>
         <v>6.2723862288071664E-3</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="str">
         <f t="shared" ref="J34:J38" si="19">J26</f>
-        <v>0</v>
+        <v>reached crit after 1st it</v>
       </c>
       <c r="M34" s="20">
         <v>3</v>
@@ -6457,35 +6768,35 @@
       <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="126">
+      <c r="B40" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="114">
         <f>2*D11+2*D11</f>
         <v>0.05</v>
       </c>
-      <c r="D40" s="136"/>
+      <c r="D40" s="124"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="111" t="s">
+      <c r="R40" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="113"/>
+      <c r="S40" s="133"/>
+      <c r="T40" s="133"/>
+      <c r="U40" s="134"/>
     </row>
     <row r="41" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="128">
+      <c r="B41" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="116">
         <f>D11*D11</f>
         <v>1.5625000000000003E-4</v>
       </c>
-      <c r="D41" s="133"/>
+      <c r="D41" s="121"/>
       <c r="M41" s="11" t="s">
         <v>0</v>
       </c>
@@ -6521,14 +6832,14 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="134" t="s">
+      <c r="B42" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="135">
+      <c r="C42" s="123">
         <f>SQRT(D7*C40/D5/C41)</f>
         <v>8</v>
       </c>
-      <c r="D42" s="133"/>
+      <c r="D42" s="121"/>
       <c r="M42" s="19">
         <v>1</v>
       </c>
@@ -6565,9 +6876,9 @@
       </c>
     </row>
     <row r="43" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="131"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="133"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="121"/>
       <c r="M43" s="20">
         <v>2</v>
       </c>
@@ -6608,11 +6919,11 @@
       </c>
     </row>
     <row r="44" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="130"/>
+      <c r="D44" s="131"/>
       <c r="M44" s="20">
         <v>3</v>
       </c>
@@ -6654,13 +6965,13 @@
     </row>
     <row r="45" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M45" s="20">
         <v>4</v>
@@ -7137,11 +7448,22 @@
         <f t="shared" si="29"/>
         <v>301.48810376690921</v>
       </c>
-      <c r="M64" s="6"/>
+      <c r="J64" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" t="s">
+        <v>137</v>
+      </c>
+      <c r="L64" t="s">
+        <v>138</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>19</v>
       </c>
@@ -7157,11 +7479,29 @@
         <f t="shared" si="29"/>
         <v>302.09497842553043</v>
       </c>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>373.14999</v>
+      </c>
+      <c r="N65" s="6">
+        <v>2.3248600000000001</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>373.14999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20</v>
       </c>
@@ -7177,11 +7517,29 @@
         <f t="shared" si="29"/>
         <v>302.96603927862111</v>
       </c>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>1.6129999999999999E-2</v>
+      </c>
+      <c r="M66" s="6">
+        <v>366.38278000000003</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O66" s="6">
+        <v>2.3248600000000001</v>
+      </c>
+      <c r="P66">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="Q66">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>21</v>
       </c>
@@ -7197,11 +7555,29 @@
         <f t="shared" si="29"/>
         <v>304.15961928193093</v>
       </c>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>4.8390000000000002E-2</v>
+      </c>
+      <c r="M67" s="6">
+        <v>355.12061</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O67" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P67">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q67">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>22</v>
       </c>
@@ -7217,11 +7593,29 @@
         <f t="shared" si="29"/>
         <v>305.75564976203657</v>
       </c>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>8.0649999999999999E-2</v>
+      </c>
+      <c r="M68" s="6">
+        <v>345.75576999999998</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O68" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P68">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q68">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>23</v>
       </c>
@@ -7237,11 +7631,29 @@
         <f t="shared" si="29"/>
         <v>307.8610132347124</v>
       </c>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>0.11291</v>
+      </c>
+      <c r="M69" s="6">
+        <v>337.97626000000002</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O69" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P69">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q69">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>24</v>
       </c>
@@ -7257,11 +7669,29 @@
         <f t="shared" si="29"/>
         <v>310.61670108288263</v>
       </c>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>6</v>
+      </c>
+      <c r="L70">
+        <v>0.14516999999999999</v>
+      </c>
+      <c r="M70" s="6">
+        <v>331.52303999999998</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O70" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P70">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q70">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>25</v>
       </c>
@@ -7277,11 +7707,29 @@
         <f t="shared" si="29"/>
         <v>314.20725542749835</v>
       </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>7</v>
+      </c>
+      <c r="L71">
+        <v>0.17743</v>
+      </c>
+      <c r="M71" s="6">
+        <v>326.18124</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O71" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P71">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q71">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>26</v>
       </c>
@@ -7297,11 +7745,29 @@
         <f t="shared" si="29"/>
         <v>318.87312749186702</v>
       </c>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>0.20968999999999999</v>
+      </c>
+      <c r="M72" s="6">
+        <v>321.77294999999998</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P72">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q72">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>27</v>
       </c>
@@ -7317,11 +7783,29 @@
         <f t="shared" si="29"/>
         <v>324.92678007086471</v>
       </c>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>0.24195</v>
+      </c>
+      <c r="M73" s="6">
+        <v>318.15134</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P73">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q73">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>28</v>
       </c>
@@ -7337,11 +7821,29 @@
         <f t="shared" si="29"/>
         <v>332.77361245061576</v>
       </c>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>0.27421000000000001</v>
+      </c>
+      <c r="M74" s="6">
+        <v>315.19583</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O74" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P74">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q74">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>29</v>
       </c>
@@ -7357,11 +7859,29 @@
         <f t="shared" si="29"/>
         <v>342.93910907271572</v>
       </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>11</v>
+      </c>
+      <c r="L75">
+        <v>0.30647000000000002</v>
+      </c>
+      <c r="M75" s="6">
+        <v>312.80795000000001</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O75" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P75">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q75">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>30</v>
       </c>
@@ -7377,11 +7897,29 @@
         <f t="shared" si="29"/>
         <v>356.10403002703117</v>
       </c>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>12</v>
+      </c>
+      <c r="L76">
+        <v>0.33872999999999998</v>
+      </c>
+      <c r="M76" s="6">
+        <v>310.90823</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O76" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P76">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q76">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>31</v>
       </c>
@@ -7397,11 +7935,29 @@
         <f t="shared" si="29"/>
         <v>373.15</v>
       </c>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>13</v>
+      </c>
+      <c r="L77">
+        <v>0.37098999999999999</v>
+      </c>
+      <c r="M77" s="6">
+        <v>309.43340999999998</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O77" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P77">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q77">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>32</v>
       </c>
@@ -7417,11 +7973,29 @@
         <f t="shared" si="29"/>
         <v>395.2185486661715</v>
       </c>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>14</v>
+      </c>
+      <c r="L78">
+        <v>0.40325</v>
+      </c>
+      <c r="M78" s="6">
+        <v>308.33434999999997</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O78" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P78">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q78">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>33</v>
       </c>
@@ -7436,11 +8010,29 @@
         <f t="shared" si="29"/>
         <v>303.85275011525772</v>
       </c>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>15</v>
+      </c>
+      <c r="L79">
+        <v>0.43551000000000001</v>
+      </c>
+      <c r="M79" s="6">
+        <v>307.57445999999999</v>
+      </c>
+      <c r="N79" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O79" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P79">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q79">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>34</v>
       </c>
@@ -7455,11 +8047,29 @@
         <f t="shared" si="29"/>
         <v>303.47075397732101</v>
       </c>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>16</v>
+      </c>
+      <c r="L80">
+        <v>0.46777000000000002</v>
+      </c>
+      <c r="M80" s="6">
+        <v>307.12842000000001</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O80" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P80">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q80">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>35</v>
       </c>
@@ -7474,11 +8084,29 @@
         <f t="shared" si="29"/>
         <v>303.1228288302209</v>
       </c>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>17</v>
+      </c>
+      <c r="L81">
+        <v>0.50002999999999997</v>
+      </c>
+      <c r="M81" s="6">
+        <v>306.98138</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O81" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P81">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q81">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>36</v>
       </c>
@@ -7493,11 +8121,29 @@
         <f t="shared" si="29"/>
         <v>302.8067467651781</v>
       </c>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>18</v>
+      </c>
+      <c r="L82">
+        <v>0.53229000000000004</v>
+      </c>
+      <c r="M82" s="6">
+        <v>307.12839000000002</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O82" s="6">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P82">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q82">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>37</v>
       </c>
@@ -7512,8 +8158,29 @@
         <f t="shared" si="29"/>
         <v>302.5204837778528</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>19</v>
+      </c>
+      <c r="L83">
+        <v>0.56455</v>
+      </c>
+      <c r="M83">
+        <v>307.57443000000001</v>
+      </c>
+      <c r="N83">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O83">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P83">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q83">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>38</v>
       </c>
@@ -7528,8 +8195,29 @@
         <f t="shared" si="29"/>
         <v>302.26220680780654</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>20</v>
+      </c>
+      <c r="L84">
+        <v>0.59680999999999995</v>
+      </c>
+      <c r="M84">
+        <v>308.33431999999999</v>
+      </c>
+      <c r="N84">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O84">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P84">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q84">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>39</v>
       </c>
@@ -7544,8 +8232,29 @@
         <f t="shared" si="29"/>
         <v>302.03026200065756</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>21</v>
+      </c>
+      <c r="L85">
+        <v>0.62907000000000002</v>
+      </c>
+      <c r="M85">
+        <v>309.43338</v>
+      </c>
+      <c r="N85">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O85">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P85">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q85">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>40</v>
       </c>
@@ -7560,8 +8269,29 @@
         <f t="shared" si="29"/>
         <v>301.82316411776628</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>22</v>
+      </c>
+      <c r="L86">
+        <v>0.66132999999999997</v>
+      </c>
+      <c r="M86">
+        <v>310.90820000000002</v>
+      </c>
+      <c r="N86">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O86">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P86">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q86">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>41</v>
       </c>
@@ -7576,8 +8306,29 @@
         <f t="shared" si="29"/>
         <v>301.63958702563724</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>23</v>
+      </c>
+      <c r="L87">
+        <v>0.69359000000000004</v>
+      </c>
+      <c r="M87">
+        <v>312.80788999999999</v>
+      </c>
+      <c r="N87">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O87">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P87">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q87">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>42</v>
       </c>
@@ -7592,8 +8343,29 @@
         <f t="shared" si="29"/>
         <v>301.4783552041373</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>24</v>
+      </c>
+      <c r="L88">
+        <v>0.72585</v>
+      </c>
+      <c r="M88">
+        <v>315.19574</v>
+      </c>
+      <c r="N88">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O88">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P88">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q88">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>43</v>
       </c>
@@ -7608,8 +8380,29 @@
         <f t="shared" si="29"/>
         <v>301.33843621915355</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>25</v>
+      </c>
+      <c r="L89">
+        <v>0.75810999999999995</v>
+      </c>
+      <c r="M89">
+        <v>318.15125</v>
+      </c>
+      <c r="N89">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O89">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P89">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q89">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>44</v>
       </c>
@@ -7624,8 +8417,29 @@
         <f t="shared" si="29"/>
         <v>301.21893411149006</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>26</v>
+      </c>
+      <c r="L90">
+        <v>0.79037000000000002</v>
+      </c>
+      <c r="M90">
+        <v>321.77283</v>
+      </c>
+      <c r="N90">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O90">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P90">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q90">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>45</v>
       </c>
@@ -7640,8 +8454,29 @@
         <f t="shared" si="29"/>
         <v>301.11908365967014</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>27</v>
+      </c>
+      <c r="L91">
+        <v>0.82262999999999997</v>
+      </c>
+      <c r="M91">
+        <v>326.18112000000002</v>
+      </c>
+      <c r="N91">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O91">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P91">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q91">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>46</v>
       </c>
@@ -7656,8 +8491,29 @@
         <f t="shared" si="29"/>
         <v>301.03824547990661</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>28</v>
+      </c>
+      <c r="L92">
+        <v>0.85489000000000004</v>
+      </c>
+      <c r="M92">
+        <v>331.52292</v>
+      </c>
+      <c r="N92">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O92">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P92">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q92">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>47</v>
       </c>
@@ -7672,8 +8528,29 @@
         <f t="shared" si="29"/>
         <v>300.97590193186244</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>29</v>
+      </c>
+      <c r="L93">
+        <v>0.88714999999999999</v>
+      </c>
+      <c r="M93">
+        <v>337.97613999999999</v>
+      </c>
+      <c r="N93">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O93">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P93">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q93">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>48</v>
       </c>
@@ -7688,8 +8565,29 @@
         <f t="shared" si="29"/>
         <v>300.93165380398545</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>30</v>
+      </c>
+      <c r="L94">
+        <v>0.91940999999999995</v>
+      </c>
+      <c r="M94">
+        <v>345.75565</v>
+      </c>
+      <c r="N94">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O94">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P94">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q94">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>49</v>
       </c>
@@ -7704,8 +8602,29 @@
         <f t="shared" si="29"/>
         <v>300.90521775719139</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>31</v>
+      </c>
+      <c r="L95">
+        <v>0.95167000000000002</v>
+      </c>
+      <c r="M95">
+        <v>355.12054000000001</v>
+      </c>
+      <c r="N95">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="O95">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P95">
+        <v>2.3635700000000002</v>
+      </c>
+      <c r="Q95">
+        <v>11.541980000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>50</v>
       </c>
@@ -7720,8 +8639,29 @@
         <f t="shared" si="29"/>
         <v>300.89642451052646</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>32</v>
+      </c>
+      <c r="L96">
+        <v>0.98392999999999997</v>
+      </c>
+      <c r="M96">
+        <v>366.38272000000001</v>
+      </c>
+      <c r="N96">
+        <v>2.3248600000000001</v>
+      </c>
+      <c r="O96">
+        <v>1.1624300000000001</v>
+      </c>
+      <c r="P96">
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="Q96">
+        <v>11.542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>51</v>
       </c>
@@ -7736,8 +8676,29 @@
         <f t="shared" si="29"/>
         <v>300.90521775719139</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>33</v>
+      </c>
+      <c r="L97">
+        <v>1.0000599999999999</v>
+      </c>
+      <c r="M97">
+        <v>373.14999</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>373.14999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>52</v>
       </c>
@@ -7753,7 +8714,7 @@
         <v>300.93165380398545</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>53</v>
       </c>
@@ -7769,7 +8730,7 @@
         <v>300.97590193186244</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>54</v>
       </c>
@@ -7785,7 +8746,7 @@
         <v>301.03824547990661</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>55</v>
       </c>
@@ -7801,7 +8762,7 @@
         <v>301.11908365967014</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>56</v>
       </c>
@@ -7817,7 +8778,7 @@
         <v>301.21893411149006</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>57</v>
       </c>
@@ -7833,7 +8794,7 @@
         <v>301.33843621915355</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>58</v>
       </c>
@@ -7849,7 +8810,7 @@
         <v>301.4783552041373</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>59</v>
       </c>
@@ -7865,7 +8826,7 @@
         <v>301.63958702563724</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>60</v>
       </c>
@@ -7881,7 +8842,7 @@
         <v>301.82316411776628</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>61</v>
       </c>
@@ -7897,7 +8858,7 @@
         <v>302.03026200065756</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>62</v>
       </c>
@@ -7913,7 +8874,7 @@
         <v>302.26220680780654</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>63</v>
       </c>
@@ -7929,7 +8890,7 @@
         <v>302.5204837778528</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>64</v>
       </c>
@@ -7945,7 +8906,7 @@
         <v>302.8067467651781</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>65</v>
       </c>
@@ -7961,7 +8922,7 @@
         <v>303.1228288302209</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>66</v>
       </c>
@@ -8545,7 +9506,7 @@
   <dimension ref="B2:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8574,7 +9535,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>5.0000000000000001E-3</v>
@@ -8598,7 +9559,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>280</v>
@@ -8607,22 +9568,22 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="37"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>50000</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="37"/>
     </row>
@@ -8637,7 +9598,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="37"/>
     </row>
@@ -8676,13 +9637,13 @@
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>12</v>
@@ -8694,7 +9655,7 @@
         <v>11</v>
       </c>
       <c r="N12" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -8927,7 +9888,7 @@
         <v>8.9990452059999257E-4</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8976,159 +9937,159 @@
         <v>-6.3272190464225006E-3</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
+      <c r="C20" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
     </row>
     <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="124">
+        <v>97</v>
+      </c>
+      <c r="C22" s="112">
         <f>-0.05</f>
         <v>-0.05</v>
       </c>
-      <c r="D22" s="125">
+      <c r="D22" s="113">
         <f t="shared" ref="D22:D31" si="6">-961.538*C22^2-51.851*C22+56.332396</f>
         <v>56.521101000000002</v>
       </c>
-      <c r="E22" s="126">
+      <c r="E22" s="114">
         <f>D22+273.15</f>
         <v>329.67110099999996</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C23" s="127">
+      <c r="C23" s="115">
         <f>-0.045</f>
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="D23" s="123">
+      <c r="D23" s="111">
         <f t="shared" si="6"/>
         <v>56.718576550000002</v>
       </c>
-      <c r="E23" s="128">
+      <c r="E23" s="116">
         <f t="shared" ref="E23:E42" si="7">D23+273.15</f>
         <v>329.86857655</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C24" s="127">
+      <c r="C24" s="115">
         <v>-0.04</v>
       </c>
-      <c r="D24" s="123">
+      <c r="D24" s="111">
         <f t="shared" si="6"/>
         <v>56.867975200000004</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="116">
         <f t="shared" si="7"/>
         <v>330.01797519999997</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C25" s="127">
+      <c r="C25" s="115">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="111">
         <f t="shared" si="6"/>
         <v>56.96929695</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="116">
         <f t="shared" si="7"/>
         <v>330.11929694999998</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="127">
+      <c r="C26" s="115">
         <v>-0.03</v>
       </c>
-      <c r="D26" s="123">
+      <c r="D26" s="111">
         <f t="shared" si="6"/>
         <v>57.022541800000006</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="116">
         <f t="shared" si="7"/>
         <v>330.17254179999998</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C27" s="127">
+      <c r="C27" s="115">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="D27" s="123">
+      <c r="D27" s="111">
         <f t="shared" si="6"/>
         <v>57.02770975</v>
       </c>
-      <c r="E27" s="128">
+      <c r="E27" s="116">
         <f t="shared" si="7"/>
         <v>330.17770974999996</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C28" s="127">
+      <c r="C28" s="115">
         <v>-0.02</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="111">
         <f t="shared" si="6"/>
         <v>56.984800800000002</v>
       </c>
-      <c r="E28" s="128">
+      <c r="E28" s="116">
         <f t="shared" si="7"/>
         <v>330.13480079999999</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C29" s="127">
+      <c r="C29" s="115">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="111">
         <f t="shared" si="6"/>
         <v>56.893814949999999</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="116">
         <f t="shared" si="7"/>
         <v>330.04381494999996</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C30" s="127">
+      <c r="C30" s="115">
         <v>-0.01</v>
       </c>
-      <c r="D30" s="123">
+      <c r="D30" s="111">
         <f t="shared" si="6"/>
         <v>56.754752200000006</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E30" s="116">
         <f t="shared" si="7"/>
         <v>329.90475219999996</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="127">
+      <c r="C31" s="115">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="111">
         <f t="shared" si="6"/>
         <v>56.56761255</v>
       </c>
-      <c r="E31" s="128">
+      <c r="E31" s="116">
         <f t="shared" si="7"/>
         <v>329.71761254999996</v>
       </c>
@@ -9137,11 +10098,11 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="123">
-        <f>-961.538*C32^2-51.851*C32+56.332396</f>
+      <c r="D32" s="111">
+        <f t="shared" ref="D32:D42" si="8">-961.538*C32^2-51.851*C32+56.332396</f>
         <v>56.332396000000003</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="116">
         <f t="shared" si="7"/>
         <v>329.48239599999999</v>
       </c>
@@ -9150,11 +10111,11 @@
       <c r="C33" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D33" s="123">
-        <f>-961.538*C33^2-51.851*C33+56.332396</f>
+      <c r="D33" s="111">
+        <f t="shared" si="8"/>
         <v>56.049102550000001</v>
       </c>
-      <c r="E33" s="128">
+      <c r="E33" s="116">
         <f t="shared" si="7"/>
         <v>329.19910254999996</v>
       </c>
@@ -9163,11 +10124,11 @@
       <c r="C34" s="1">
         <v>0.01</v>
       </c>
-      <c r="D34" s="123">
-        <f>-961.538*C34^2-51.851*C34+56.332396</f>
+      <c r="D34" s="111">
+        <f t="shared" si="8"/>
         <v>55.7177322</v>
       </c>
-      <c r="E34" s="128">
+      <c r="E34" s="116">
         <f t="shared" si="7"/>
         <v>328.86773219999998</v>
       </c>
@@ -9176,11 +10137,11 @@
       <c r="C35" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D35" s="123">
-        <f>-961.538*C35^2-51.851*C35+56.332396</f>
+      <c r="D35" s="111">
+        <f t="shared" si="8"/>
         <v>55.338284950000002</v>
       </c>
-      <c r="E35" s="128">
+      <c r="E35" s="116">
         <f t="shared" si="7"/>
         <v>328.48828494999998</v>
       </c>
@@ -9189,11 +10150,11 @@
       <c r="C36" s="1">
         <v>0.02</v>
       </c>
-      <c r="D36" s="123">
-        <f>-961.538*C36^2-51.851*C36+56.332396</f>
+      <c r="D36" s="111">
+        <f t="shared" si="8"/>
         <v>54.910760800000006</v>
       </c>
-      <c r="E36" s="128">
+      <c r="E36" s="116">
         <f t="shared" si="7"/>
         <v>328.06076079999997</v>
       </c>
@@ -9202,11 +10163,11 @@
       <c r="C37" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D37" s="123">
-        <f>-961.538*C37^2-51.851*C37+56.332396</f>
+      <c r="D37" s="111">
+        <f t="shared" si="8"/>
         <v>54.435159750000004</v>
       </c>
-      <c r="E37" s="128">
+      <c r="E37" s="116">
         <f t="shared" si="7"/>
         <v>327.58515975</v>
       </c>
@@ -9215,11 +10176,11 @@
       <c r="C38" s="1">
         <v>0.03</v>
       </c>
-      <c r="D38" s="123">
-        <f>-961.538*C38^2-51.851*C38+56.332396</f>
+      <c r="D38" s="111">
+        <f t="shared" si="8"/>
         <v>53.911481800000004</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E38" s="116">
         <f t="shared" si="7"/>
         <v>327.06148179999997</v>
       </c>
@@ -9228,11 +10189,11 @@
       <c r="C39" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D39" s="123">
-        <f>-961.538*C39^2-51.851*C39+56.332396</f>
+      <c r="D39" s="111">
+        <f t="shared" si="8"/>
         <v>53.339726949999999</v>
       </c>
-      <c r="E39" s="128">
+      <c r="E39" s="116">
         <f t="shared" si="7"/>
         <v>326.48972694999998</v>
       </c>
@@ -9241,11 +10202,11 @@
       <c r="C40" s="1">
         <v>0.04</v>
       </c>
-      <c r="D40" s="123">
-        <f>-961.538*C40^2-51.851*C40+56.332396</f>
+      <c r="D40" s="111">
+        <f t="shared" si="8"/>
         <v>52.719895200000003</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="116">
         <f t="shared" si="7"/>
         <v>325.86989519999997</v>
       </c>
@@ -9254,27 +10215,27 @@
       <c r="C41" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D41" s="123">
-        <f>-961.538*C41^2-51.851*C41+56.332396</f>
+      <c r="D41" s="111">
+        <f t="shared" si="8"/>
         <v>52.051986550000002</v>
       </c>
-      <c r="E41" s="128">
+      <c r="E41" s="116">
         <f t="shared" si="7"/>
         <v>325.20198654999996</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3">
         <v>0.05</v>
       </c>
-      <c r="D42" s="129">
-        <f>-961.538*C42^2-51.851*C42+56.332396</f>
+      <c r="D42" s="117">
+        <f t="shared" si="8"/>
         <v>51.336001000000003</v>
       </c>
-      <c r="E42" s="130">
+      <c r="E42" s="118">
         <f t="shared" si="7"/>
         <v>324.48600099999999</v>
       </c>
@@ -9330,15 +10291,15 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>1.2500000000000001E-2</v>
@@ -9361,16 +10322,16 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>430</v>
@@ -9390,12 +10351,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9403,62 +10364,62 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="K11" s="117" t="s">
+      <c r="B11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="K11" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="120" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
+      <c r="B12" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
       <c r="I12" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="116"/>
+        <v>86</v>
+      </c>
+      <c r="K12" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
       <c r="R12" s="108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9532,7 +10493,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="105" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J14" s="105"/>
       <c r="K14" s="52">
@@ -9550,16 +10511,16 @@
         <v>0.5</v>
       </c>
       <c r="O14" s="98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P14" s="99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="57" t="s">
         <v>14</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -9588,7 +10549,7 @@
         <v>13.162761400051682</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J15" s="105"/>
       <c r="K15" s="53">
@@ -9616,7 +10577,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -9646,7 +10607,7 @@
         <v>1.2879995079812421</v>
       </c>
       <c r="I16" s="106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="106"/>
       <c r="K16" s="53">
@@ -9675,7 +10636,7 @@
         <v>0.111109733335524</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -9705,7 +10666,7 @@
         <v>5.4029032398003309E-2</v>
       </c>
       <c r="I17" s="106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J17" s="106"/>
       <c r="K17" s="53">
@@ -9734,7 +10695,7 @@
         <v>5.8840029405989765E-2</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -9764,7 +10725,7 @@
         <v>1.190211944354559E-2</v>
       </c>
       <c r="I18" s="106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J18" s="106"/>
       <c r="K18" s="53">
@@ -9794,7 +10755,7 @@
         <v>3.0349333100625965E-2</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9824,7 +10785,7 @@
         <v>2.5243706929385388E-3</v>
       </c>
       <c r="I19" s="106" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J19" s="106"/>
       <c r="K19" s="54">
@@ -9853,30 +10814,30 @@
         <v>1.5399887531846505E-2</v>
       </c>
       <c r="R19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122"/>
+      <c r="B20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="113"/>
+      <c r="K20" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
@@ -9949,7 +10910,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J22" s="105"/>
       <c r="K22" s="52">
@@ -9976,7 +10937,7 @@
         <v>14</v>
       </c>
       <c r="R22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -10005,7 +10966,7 @@
         <v>0.2587062936209058</v>
       </c>
       <c r="I23" s="106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J23" s="106"/>
       <c r="K23" s="53">
@@ -10033,7 +10994,7 @@
         <v>6.3464460635133765E-8</v>
       </c>
       <c r="R23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -10063,7 +11024,7 @@
         <v>0.11377457781579939</v>
       </c>
       <c r="I24" s="106" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J24" s="106"/>
       <c r="K24" s="53">
@@ -10092,7 +11053,7 @@
         <v>-1.8404692430800532E-7</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -10122,7 +11083,7 @@
         <v>3.7291454269844843E-2</v>
       </c>
       <c r="I25" s="106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J25" s="106"/>
       <c r="K25" s="53">
@@ -10151,7 +11112,7 @@
         <v>1.2058248989344544E-7</v>
       </c>
       <c r="R25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -10181,7 +11142,7 @@
         <v>1.0242418179336247E-2</v>
       </c>
       <c r="I26" s="106" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J26" s="106"/>
       <c r="K26" s="53">
@@ -10210,7 +11171,7 @@
         <v>1.2058247524057479E-7</v>
       </c>
       <c r="R26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10240,7 +11201,7 @@
         <v>2.5411882334526923E-3</v>
       </c>
       <c r="I27" s="106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J27" s="106"/>
       <c r="K27" s="54">
@@ -10269,30 +11230,30 @@
         <v>3.1315899703087161E-4</v>
       </c>
       <c r="R27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="B28" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="140"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="113"/>
+      <c r="K28" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
     </row>
     <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="93" t="s">
@@ -10365,7 +11326,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="105"/>
       <c r="K30" s="52">
@@ -10392,7 +11353,7 @@
         <v>14</v>
       </c>
       <c r="R30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -10421,7 +11382,7 @@
         <v>0.2587049245535939</v>
       </c>
       <c r="I31" s="106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J31" s="106"/>
       <c r="K31" s="53">
@@ -10449,7 +11410,7 @@
         <v>0.99357636919766734</v>
       </c>
       <c r="R31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -10479,7 +11440,7 @@
         <v>0.11377597779970303</v>
       </c>
       <c r="I32" s="106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" s="106"/>
       <c r="K32" s="53">
@@ -10508,7 +11469,7 @@
         <v>0.97510368613467613</v>
       </c>
       <c r="R32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -10538,7 +11499,7 @@
         <v>3.7290647018494237E-2</v>
       </c>
       <c r="I33" s="107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J33" s="107"/>
       <c r="K33" s="53">
@@ -10567,7 +11528,7 @@
         <v>0.91101063062196352</v>
       </c>
       <c r="R33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
@@ -10597,7 +11558,7 @@
         <v>1.0255229178946891E-2</v>
       </c>
       <c r="I34" s="106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J34" s="106"/>
       <c r="K34" s="53">
@@ -10626,7 +11587,7 @@
         <v>0.74420427238555509</v>
       </c>
       <c r="R34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10656,7 +11617,7 @@
         <v>2.5221367373014216E-3</v>
       </c>
       <c r="I35" s="107" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35" s="107"/>
       <c r="K35" s="54">
@@ -10685,7 +11646,7 @@
         <v>0.48149343845078624</v>
       </c>
       <c r="R35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10714,7 +11675,7 @@
         <v>0.1681868824703702</v>
       </c>
       <c r="R36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -10738,8 +11699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:Q20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10775,15 +11736,15 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>1.2500000000000001E-2</v>
@@ -10806,16 +11767,16 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>430</v>
@@ -10835,12 +11796,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10848,62 +11809,62 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="K11" s="117" t="s">
+      <c r="B11" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="119"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="K11" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="120" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
+      <c r="B12" s="138" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
       <c r="I12" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="116"/>
+        <v>86</v>
+      </c>
+      <c r="K12" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="137"/>
       <c r="R12" s="108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10977,7 +11938,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="105" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J14" s="105"/>
       <c r="K14" s="52">
@@ -10995,16 +11956,16 @@
         <v>0.5</v>
       </c>
       <c r="O14" s="98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P14" s="99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="57" t="s">
         <v>14</v>
       </c>
       <c r="R14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -11033,7 +11994,7 @@
         <v>0.21123781245720175</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J15" s="105"/>
       <c r="K15" s="53">
@@ -11061,7 +12022,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -11091,7 +12052,7 @@
         <v>9.8802888521172555E-2</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J16" s="106"/>
       <c r="K16" s="53">
@@ -11120,7 +12081,7 @@
         <v>0.111109733335524</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
@@ -11150,7 +12111,7 @@
         <v>3.3587025425345085E-2</v>
       </c>
       <c r="I17" s="105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J17" s="106"/>
       <c r="K17" s="53">
@@ -11179,7 +12140,7 @@
         <v>5.8840029405989765E-2</v>
       </c>
       <c r="R17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
@@ -11209,7 +12170,7 @@
         <v>9.3886497686890384E-3</v>
       </c>
       <c r="I18" s="106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J18" s="106"/>
       <c r="K18" s="53">
@@ -11239,7 +12200,7 @@
         <v>3.0349333100625965E-2</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11269,7 +12230,7 @@
         <v>2.3594935596523764E-3</v>
       </c>
       <c r="I19" s="106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J19" s="106"/>
       <c r="K19" s="54">
@@ -11298,30 +12259,30 @@
         <v>1.5399887531846505E-2</v>
       </c>
       <c r="R19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122"/>
+      <c r="B20" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="113"/>
+      <c r="K20" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
     </row>
     <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="93" t="s">
@@ -11394,7 +12355,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J22" s="105"/>
       <c r="K22" s="52">
@@ -11421,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="R22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
@@ -11450,7 +12411,7 @@
         <v>0.21123761188390039</v>
       </c>
       <c r="I23" s="105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J23" s="106"/>
       <c r="K23" s="53">
@@ -11478,7 +12439,7 @@
         <v>5.4013764858511942E-4</v>
       </c>
       <c r="R23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
@@ -11508,7 +12469,7 @@
         <v>9.8802273306240349E-2</v>
       </c>
       <c r="I24" s="106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J24" s="106"/>
       <c r="K24" s="53">
@@ -11537,7 +12498,7 @@
         <v>1.0324071136936829E-2</v>
       </c>
       <c r="R24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
@@ -11567,7 +12528,7 @@
         <v>3.3586356639078205E-2</v>
       </c>
       <c r="I25" s="106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J25" s="106"/>
       <c r="K25" s="53">
@@ -11596,7 +12557,7 @@
         <v>0.20540332647774823</v>
       </c>
       <c r="R25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -11626,7 +12587,7 @@
         <v>9.3922249301873588E-3</v>
       </c>
       <c r="I26" s="106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J26" s="106"/>
       <c r="K26" s="53">
@@ -11655,7 +12616,7 @@
         <v>2.4807785930343353</v>
       </c>
       <c r="R26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11685,7 +12646,7 @@
         <v>2.3617037413172538E-3</v>
       </c>
       <c r="I27" s="106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J27" s="106"/>
       <c r="K27" s="54">
@@ -11714,30 +12675,30 @@
         <v>2.8442702972673031</v>
       </c>
       <c r="R27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="B28" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="140"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="113"/>
+      <c r="K28" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
     </row>
     <row r="29" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="93" t="s">
@@ -11810,7 +12771,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="105"/>
       <c r="K30" s="52">
@@ -11837,7 +12798,7 @@
         <v>14</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -11866,7 +12827,7 @@
         <v>0.21123812615472437</v>
       </c>
       <c r="I31" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" s="106"/>
       <c r="K31" s="53">
@@ -11894,7 +12855,7 @@
         <v>0.83330481421532032</v>
       </c>
       <c r="R31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -11924,7 +12885,7 @@
         <v>9.8801897751054274E-2</v>
       </c>
       <c r="I32" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J32" s="106"/>
       <c r="K32" s="53">
@@ -11953,7 +12914,7 @@
         <v>0.76344909888372448</v>
       </c>
       <c r="R32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
@@ -11983,7 +12944,7 @@
         <v>3.3589977954342834E-2</v>
       </c>
       <c r="I33" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J33" s="107"/>
       <c r="K33" s="53">
@@ -12012,7 +12973,7 @@
         <v>0.66322086690443416</v>
       </c>
       <c r="R33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
@@ -12042,7 +13003,7 @@
         <v>9.3909819093312731E-3</v>
       </c>
       <c r="I34" s="106" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J34" s="106"/>
       <c r="K34" s="53">
@@ -12071,7 +13032,7 @@
         <v>0.52629789365696655</v>
       </c>
       <c r="R34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12101,7 +13062,7 @@
         <v>2.3640364572853484E-3</v>
       </c>
       <c r="I35" s="107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J35" s="107"/>
       <c r="K35" s="54">
@@ -12130,7 +13091,7 @@
         <v>0.3571840042714553</v>
       </c>
       <c r="R35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12144,7 +13105,7 @@
         <f>L36-1</f>
         <v>100</v>
       </c>
-      <c r="N36" s="140">
+      <c r="N36" s="128">
         <f t="shared" si="13"/>
         <v>0.01</v>
       </c>
@@ -12159,7 +13120,7 @@
         <v>0.13462780102357103</v>
       </c>
       <c r="R36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12173,7 +13134,7 @@
         <f>L37-1</f>
         <v>114</v>
       </c>
-      <c r="N37" s="140">
+      <c r="N37" s="128">
         <f t="shared" si="13"/>
         <v>8.771929824561403E-3</v>
       </c>
@@ -12188,7 +13149,7 @@
         <v>2.752057601259009E-2</v>
       </c>
       <c r="R37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
